--- a/study.xlsx
+++ b/study.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
     <sheet name="测试技能" sheetId="2" r:id="rId2"/>
     <sheet name="考试技能" sheetId="3" r:id="rId3"/>
+    <sheet name="体重记录" sheetId="4" r:id="rId4"/>
+    <sheet name="感悟分享" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="540">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1634,14 +1636,78 @@
   </si>
   <si>
     <t>总时长19小时35分钟14秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该体重为当日称量的最低值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重（斤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得体会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">有时候迷茫，也许只是您没有清晰的工作内容。（所以您需要了解您的学习内容，合理安排它们。）远离手机，远离网络。
+您需要计划您的生活，开心简单，自然而然地进入学习。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做一个积极的人，不应目光短视看待自己的过去和未来。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+活在当下，改变现状也是一个需要不断积累，修炼的过程。
+能看到更上一层楼风景的人，都是积极乐观，坚持奋斗的人。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（重点iso七层模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试两节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,8 +1722,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +1757,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1695,7 +1776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1714,6 +1795,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1748,11 +1841,16 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1826,6 +1924,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1860,6 +1959,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2035,14 +2135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2050,7 +2150,7 @@
     <col min="4" max="4" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5">
+    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -2064,9 +2164,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>539</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>516</v>
@@ -2079,20 +2182,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="D461" sqref="D461"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>70</v>
@@ -2110,7 +2213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2221,7 @@
         <v>1.6828703703703703E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2229,7 @@
         <v>1.7106481481481483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2237,7 @@
         <v>1.7604166666666667E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2245,7 @@
         <v>8.2523148148148148E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2253,7 @@
         <v>1.3078703703703703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2261,7 @@
         <v>1.3321759259259261E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2269,7 @@
         <v>1.53125E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2277,7 @@
         <v>1.6932870370370369E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2285,7 @@
         <v>1.0289351851851852E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2293,7 @@
         <v>8.6921296296296312E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2301,7 @@
         <v>4.3287037037037035E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2309,7 @@
         <v>8.3449074074074085E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2317,7 @@
         <v>1.7523148148148149E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +2325,7 @@
         <v>5.6828703703703702E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2333,7 @@
         <v>1.0891203703703703E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2238,7 +2341,7 @@
         <v>9.0509259259259258E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2349,7 @@
         <v>1.4421296296296295E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -2254,7 +2357,7 @@
         <v>7.1643518518518514E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2262,7 +2365,7 @@
         <v>9.8263888888888897E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2270,7 +2373,7 @@
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -2278,7 +2381,7 @@
         <v>9.9074074074074082E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2389,7 @@
         <v>1.9270833333333334E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2294,7 +2397,7 @@
         <v>1.1597222222222222E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2302,7 +2405,7 @@
         <v>8.2986111111111108E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2413,7 @@
         <v>7.6157407407407415E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2421,7 @@
         <v>9.9074074074074082E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -2326,7 +2429,7 @@
         <v>1.068287037037037E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -2334,7 +2437,7 @@
         <v>1.4432870370370372E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2342,7 +2445,7 @@
         <v>7.9629629629629634E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -2350,7 +2453,7 @@
         <v>7.8356481481481489E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2358,7 +2461,7 @@
         <v>6.5509259259259262E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -2366,7 +2469,7 @@
         <v>8.6921296296296312E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +2477,7 @@
         <v>1.7071759259259259E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -2382,7 +2485,7 @@
         <v>1.1898148148148149E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2390,7 +2493,7 @@
         <v>1.6296296296296295E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -2398,7 +2501,7 @@
         <v>7.951388888888888E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -2406,7 +2509,7 @@
         <v>8.2523148148148148E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -2414,7 +2517,7 @@
         <v>5.7291666666666671E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -2422,7 +2525,7 @@
         <v>5.8217592592592592E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -2430,7 +2533,7 @@
         <v>9.3171296296296283E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2541,7 @@
         <v>6.3310185185185197E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -2446,7 +2549,7 @@
         <v>8.9351851851851866E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -2454,7 +2557,7 @@
         <v>9.5370370370370366E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -2462,7 +2565,7 @@
         <v>1.6238425925925924E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2573,7 @@
         <v>8.217592592592594E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -2478,7 +2581,7 @@
         <v>7.4768518518518526E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -2486,7 +2589,7 @@
         <v>7.3726851851851861E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2597,7 @@
         <v>8.6921296296296312E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -2502,7 +2605,7 @@
         <v>1.6307870370370372E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -2510,7 +2613,7 @@
         <v>5.9375000000000009E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -2518,7 +2621,7 @@
         <v>1.5173611111111112E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -2526,7 +2629,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -2534,7 +2637,7 @@
         <v>9.0624999999999994E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>53</v>
       </c>
@@ -2542,7 +2645,7 @@
         <v>1.4351851851851852E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -2550,7 +2653,7 @@
         <v>1.4409722222222221E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>55</v>
       </c>
@@ -2558,7 +2661,7 @@
         <v>1.1967592592592592E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2669,7 @@
         <v>1.7488425925925925E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>57</v>
       </c>
@@ -2574,7 +2677,7 @@
         <v>1.4780092592592595E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>58</v>
       </c>
@@ -2582,7 +2685,7 @@
         <v>1.3622685185185184E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>59</v>
       </c>
@@ -2590,7 +2693,7 @@
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2701,7 @@
         <v>1.9791666666666666E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>61</v>
       </c>
@@ -2606,7 +2709,7 @@
         <v>1.091435185185185E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>62</v>
       </c>
@@ -2614,7 +2717,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>63</v>
       </c>
@@ -2622,7 +2725,7 @@
         <v>5.9490740740740745E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +2733,7 @@
         <v>5.5439814814814822E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>65</v>
       </c>
@@ -2638,7 +2741,7 @@
         <v>1.0266203703703703E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2749,7 @@
         <v>9.6296296296296303E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +2757,7 @@
         <v>1.4687499999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2765,7 @@
         <v>1.087962962962963E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -2670,7 +2773,7 @@
         <v>8.2754629629629619E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>75</v>
@@ -2688,7 +2791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>76</v>
       </c>
@@ -2696,7 +2799,7 @@
         <v>2.4467592592592593E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>77</v>
       </c>
@@ -2704,7 +2807,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>78</v>
       </c>
@@ -2712,7 +2815,7 @@
         <v>8.7499999999999991E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>79</v>
       </c>
@@ -2720,7 +2823,7 @@
         <v>5.3819444444444453E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>80</v>
       </c>
@@ -2728,7 +2831,7 @@
         <v>1.0324074074074074E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>81</v>
       </c>
@@ -2736,7 +2839,7 @@
         <v>4.1203703703703706E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>82</v>
       </c>
@@ -2744,7 +2847,7 @@
         <v>4.6527777777777774E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>83</v>
       </c>
@@ -2752,7 +2855,7 @@
         <v>1.2800925925925926E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>84</v>
       </c>
@@ -2760,7 +2863,7 @@
         <v>2.5462962962962961E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>85</v>
       </c>
@@ -2768,7 +2871,7 @@
         <v>6.4236111111111117E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>86</v>
       </c>
@@ -2776,7 +2879,7 @@
         <v>1.2569444444444446E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>87</v>
       </c>
@@ -2784,7 +2887,7 @@
         <v>6.6550925925925935E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>88</v>
       </c>
@@ -2792,7 +2895,7 @@
         <v>1.0532407407407407E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>89</v>
       </c>
@@ -2800,7 +2903,7 @@
         <v>5.8101851851851856E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>90</v>
       </c>
@@ -2808,7 +2911,7 @@
         <v>3.8888888888888883E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>91</v>
       </c>
@@ -2816,7 +2919,7 @@
         <v>6.6319444444444446E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>92</v>
       </c>
@@ -2824,7 +2927,7 @@
         <v>1.5011574074074075E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>93</v>
       </c>
@@ -2832,7 +2935,7 @@
         <v>8.5879629629629622E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>94</v>
       </c>
@@ -2840,7 +2943,7 @@
         <v>4.6990740740740743E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>95</v>
       </c>
@@ -2848,7 +2951,7 @@
         <v>8.3680555555555557E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>96</v>
       </c>
@@ -2856,7 +2959,7 @@
         <v>1.019675925925926E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>97</v>
       </c>
@@ -2864,7 +2967,7 @@
         <v>9.4097222222222238E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>98</v>
       </c>
@@ -2872,7 +2975,7 @@
         <v>1.6018518518518519E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>99</v>
       </c>
@@ -2880,7 +2983,7 @@
         <v>5.3935185185185188E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>100</v>
       </c>
@@ -2888,7 +2991,7 @@
         <v>1.3726851851851851E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>101</v>
       </c>
@@ -2896,7 +2999,7 @@
         <v>3.3564814814814811E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>102</v>
       </c>
@@ -2904,7 +3007,7 @@
         <v>1.0659722222222221E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>103</v>
       </c>
@@ -2912,7 +3015,7 @@
         <v>5.6944444444444438E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>104</v>
       </c>
@@ -2920,7 +3023,7 @@
         <v>1.2743055555555556E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>105</v>
       </c>
@@ -2928,7 +3031,7 @@
         <v>1.7719907407407406E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>517</v>
       </c>
@@ -2936,7 +3039,7 @@
         <v>2.1990740740740741E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>106</v>
       </c>
@@ -2944,7 +3047,7 @@
         <v>6.122685185185185E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +3055,7 @@
         <v>7.5925925925925926E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>108</v>
       </c>
@@ -2960,7 +3063,7 @@
         <v>4.1435185185185186E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +3071,7 @@
         <v>9.6759259259259264E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>110</v>
       </c>
@@ -2976,7 +3079,7 @@
         <v>4.4560185185185189E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +3087,7 @@
         <v>1.0497685185185186E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>112</v>
       </c>
@@ -2992,7 +3095,7 @@
         <v>6.9791666666666674E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>113</v>
       </c>
@@ -3000,7 +3103,7 @@
         <v>3.2754629629629631E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>114</v>
       </c>
@@ -3008,7 +3111,7 @@
         <v>9.2824074074074076E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>115</v>
       </c>
@@ -3016,7 +3119,7 @@
         <v>8.5763888888888886E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3127,7 @@
         <v>1.6712962962962961E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>117</v>
       </c>
@@ -3032,7 +3135,7 @@
         <v>7.3958333333333341E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>118</v>
       </c>
@@ -3040,7 +3143,7 @@
         <v>5.0347222222222225E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>119</v>
       </c>
@@ -3048,7 +3151,7 @@
         <v>4.363425925925926E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>120</v>
       </c>
@@ -3056,7 +3159,7 @@
         <v>1.2291666666666666E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>121</v>
       </c>
@@ -3064,7 +3167,7 @@
         <v>9.9421296296296289E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>122</v>
       </c>
@@ -3072,7 +3175,7 @@
         <v>6.6435185185185182E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>123</v>
       </c>
@@ -3080,7 +3183,7 @@
         <v>5.1967592592592595E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>124</v>
       </c>
@@ -3088,7 +3191,7 @@
         <v>9.9537037037037042E-3</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>125</v>
       </c>
@@ -3096,7 +3199,7 @@
         <v>2.488425925925926E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>126</v>
       </c>
@@ -3104,7 +3207,7 @@
         <v>9.3634259259259261E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>127</v>
       </c>
@@ -3112,7 +3215,7 @@
         <v>8.1944444444444452E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>128</v>
       </c>
@@ -3120,7 +3223,7 @@
         <v>1.0393518518518519E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>129</v>
       </c>
@@ -3128,7 +3231,7 @@
         <v>4.5833333333333334E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>130</v>
       </c>
@@ -3136,7 +3239,7 @@
         <v>4.4675925925925933E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>131</v>
       </c>
@@ -3144,7 +3247,7 @@
         <v>6.053240740740741E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>132</v>
       </c>
@@ -3152,7 +3255,7 @@
         <v>5.0347222222222225E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>133</v>
       </c>
@@ -3160,7 +3263,7 @@
         <v>7.4421296296296293E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>134</v>
       </c>
@@ -3168,7 +3271,7 @@
         <v>5.0347222222222225E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>135</v>
       </c>
@@ -3176,7 +3279,7 @@
         <v>5.4513888888888884E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>136</v>
       </c>
@@ -3184,7 +3287,7 @@
         <v>2.0949074074074075E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>137</v>
       </c>
@@ -3192,7 +3295,7 @@
         <v>4.3981481481481484E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>138</v>
       </c>
@@ -3200,7 +3303,7 @@
         <v>8.2870370370370372E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>139</v>
       </c>
@@ -3208,7 +3311,7 @@
         <v>6.8171296296296287E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>140</v>
       </c>
@@ -3216,7 +3319,7 @@
         <v>1.834490740740741E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>141</v>
       </c>
@@ -3224,7 +3327,7 @@
         <v>5.9027777777777776E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>142</v>
       </c>
@@ -3232,7 +3335,7 @@
         <v>8.2986111111111108E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>143</v>
       </c>
@@ -3240,7 +3343,7 @@
         <v>6.875E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>144</v>
       </c>
@@ -3248,7 +3351,7 @@
         <v>7.743055555555556E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>145</v>
       </c>
@@ -3256,7 +3359,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>146</v>
       </c>
@@ -3264,7 +3367,7 @@
         <v>6.6782407407407415E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>147</v>
       </c>
@@ -3272,7 +3375,7 @@
         <v>6.3078703703703708E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>148</v>
       </c>
@@ -3280,7 +3383,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>149</v>
       </c>
@@ -3288,7 +3391,7 @@
         <v>8.0092592592592594E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>150</v>
       </c>
@@ -3296,7 +3399,7 @@
         <v>1.0127314814814815E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>151</v>
       </c>
@@ -3304,7 +3407,7 @@
         <v>2.0891203703703703E-2</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>152</v>
       </c>
@@ -3312,7 +3415,7 @@
         <v>7.69675925925926E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>153</v>
       </c>
@@ -3320,7 +3423,7 @@
         <v>7.8240740740740753E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>154</v>
       </c>
@@ -3328,7 +3431,7 @@
         <v>1.9085648148148147E-2</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>155</v>
       </c>
@@ -3336,7 +3439,7 @@
         <v>7.6273148148148151E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>156</v>
       </c>
@@ -3344,7 +3447,7 @@
         <v>6.7708333333333336E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>157</v>
       </c>
@@ -3352,7 +3455,7 @@
         <v>3.7268518518518514E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>158</v>
       </c>
@@ -3360,7 +3463,7 @@
         <v>1.4976851851851852E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>159</v>
       </c>
@@ -3368,7 +3471,7 @@
         <v>1.2048611111111112E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>160</v>
       </c>
@@ -3376,7 +3479,7 @@
         <v>1.5219907407407409E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>161</v>
       </c>
@@ -3384,7 +3487,7 @@
         <v>3.1481481481481482E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>162</v>
       </c>
@@ -3392,7 +3495,7 @@
         <v>1.4479166666666668E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
         <v>163</v>
       </c>
@@ -3400,7 +3503,7 @@
         <v>8.518518518518519E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>164</v>
       </c>
@@ -3408,7 +3511,7 @@
         <v>7.69675925925926E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>165</v>
       </c>
@@ -3416,7 +3519,7 @@
         <v>7.1296296296296307E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
         <v>167</v>
@@ -3434,7 +3537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>170</v>
       </c>
@@ -3442,7 +3545,7 @@
         <v>8.6458333333333335E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>171</v>
       </c>
@@ -3450,7 +3553,7 @@
         <v>6.1805555555555563E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>172</v>
       </c>
@@ -3458,7 +3561,7 @@
         <v>1.2465277777777777E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>173</v>
       </c>
@@ -3466,7 +3569,7 @@
         <v>6.9675925925925921E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>174</v>
       </c>
@@ -3474,7 +3577,7 @@
         <v>1.306712962962963E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
         <v>175</v>
       </c>
@@ -3482,7 +3585,7 @@
         <v>8.3217592592592596E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>176</v>
       </c>
@@ -3490,7 +3593,7 @@
         <v>4.5601851851851853E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>177</v>
       </c>
@@ -3498,7 +3601,7 @@
         <v>8.1828703703703699E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>178</v>
       </c>
@@ -3506,7 +3609,7 @@
         <v>1.1284722222222222E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>179</v>
       </c>
@@ -3514,7 +3617,7 @@
         <v>1.2407407407407409E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>180</v>
       </c>
@@ -3522,7 +3625,7 @@
         <v>9.6874999999999999E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
         <v>181</v>
       </c>
@@ -3530,7 +3633,7 @@
         <v>5.5439814814814822E-3</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>182</v>
       </c>
@@ -3538,7 +3641,7 @@
         <v>9.1550925925925931E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>183</v>
       </c>
@@ -3546,7 +3649,7 @@
         <v>7.3379629629629628E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>184</v>
       </c>
@@ -3554,7 +3657,7 @@
         <v>1.0231481481481482E-2</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>185</v>
       </c>
@@ -3562,7 +3665,7 @@
         <v>4.5717592592592589E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>186</v>
       </c>
@@ -3570,7 +3673,7 @@
         <v>6.9791666666666674E-3</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>187</v>
       </c>
@@ -3578,7 +3681,7 @@
         <v>4.2708333333333339E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>188</v>
       </c>
@@ -3586,7 +3689,7 @@
         <v>3.6574074074074074E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>189</v>
       </c>
@@ -3594,7 +3697,7 @@
         <v>6.3541666666666668E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>190</v>
       </c>
@@ -3602,7 +3705,7 @@
         <v>1.6689814814814817E-2</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>191</v>
       </c>
@@ -3610,7 +3713,7 @@
         <v>7.3032407407407412E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>192</v>
       </c>
@@ -3618,7 +3721,7 @@
         <v>3.2060185185185191E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>193</v>
       </c>
@@ -3626,7 +3729,7 @@
         <v>7.905092592592592E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>194</v>
       </c>
@@ -3634,7 +3737,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>195</v>
       </c>
@@ -3642,7 +3745,7 @@
         <v>9.6990740740740735E-3</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>196</v>
       </c>
@@ -3650,7 +3753,7 @@
         <v>2.7893518518518519E-3</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>197</v>
       </c>
@@ -3658,7 +3761,7 @@
         <v>4.2013888888888891E-3</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>198</v>
       </c>
@@ -3666,7 +3769,7 @@
         <v>2.4537037037037036E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>199</v>
       </c>
@@ -3674,7 +3777,7 @@
         <v>6.238425925925925E-3</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>200</v>
       </c>
@@ -3682,7 +3785,7 @@
         <v>1.2106481481481482E-2</v>
       </c>
     </row>
-    <row r="197" spans="2:3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>201</v>
       </c>
@@ -3690,7 +3793,7 @@
         <v>4.8842592592592592E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
         <v>202</v>
       </c>
@@ -3698,7 +3801,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>203</v>
       </c>
@@ -3706,7 +3809,7 @@
         <v>5.0462962962962961E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>204</v>
       </c>
@@ -3714,7 +3817,7 @@
         <v>7.3495370370370372E-3</v>
       </c>
     </row>
-    <row r="201" spans="2:3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>205</v>
       </c>
@@ -3722,7 +3825,7 @@
         <v>7.4421296296296293E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>206</v>
       </c>
@@ -3730,7 +3833,7 @@
         <v>4.6064814814814814E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>207</v>
       </c>
@@ -3738,7 +3841,7 @@
         <v>8.1481481481481474E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>208</v>
       </c>
@@ -3746,7 +3849,7 @@
         <v>6.168981481481481E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>209</v>
       </c>
@@ -3754,7 +3857,7 @@
         <v>5.6944444444444438E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>210</v>
       </c>
@@ -3762,7 +3865,7 @@
         <v>4.3055555555555555E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>211</v>
       </c>
@@ -3770,7 +3873,7 @@
         <v>7.905092592592592E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>212</v>
       </c>
@@ -3778,7 +3881,7 @@
         <v>7.5810185185185182E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>213</v>
       </c>
@@ -3786,7 +3889,7 @@
         <v>7.2222222222222228E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>214</v>
       </c>
@@ -3794,7 +3897,7 @@
         <v>5.7870370370370376E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>215</v>
       </c>
@@ -3802,7 +3905,7 @@
         <v>4.2476851851851851E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>216</v>
       </c>
@@ -3810,7 +3913,7 @@
         <v>1.0138888888888888E-2</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>217</v>
       </c>
@@ -3818,7 +3921,7 @@
         <v>7.0254629629629634E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>218</v>
       </c>
@@ -3826,7 +3929,7 @@
         <v>4.6990740740740743E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>219</v>
       </c>
@@ -3834,7 +3937,7 @@
         <v>3.2291666666666666E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>220</v>
       </c>
@@ -3842,7 +3945,7 @@
         <v>7.5925925925925926E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>221</v>
       </c>
@@ -3850,7 +3953,7 @@
         <v>1.3425925925925925E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>222</v>
       </c>
@@ -3858,7 +3961,7 @@
         <v>6.5393518518518517E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>223</v>
       </c>
@@ -3866,7 +3969,7 @@
         <v>1.0659722222222221E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>224</v>
       </c>
@@ -3874,7 +3977,7 @@
         <v>6.2847222222222228E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>225</v>
       </c>
@@ -3882,7 +3985,7 @@
         <v>2.1874999999999998E-3</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>226</v>
       </c>
@@ -3890,7 +3993,7 @@
         <v>4.1782407407407402E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>227</v>
       </c>
@@ -3898,7 +4001,7 @@
         <v>6.145833333333333E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>228</v>
       </c>
@@ -3906,7 +4009,7 @@
         <v>3.1365740740740742E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
       <c r="B225" s="7" t="s">
         <v>230</v>
@@ -3924,7 +4027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>231</v>
       </c>
@@ -3932,7 +4035,7 @@
         <v>1.3020833333333334E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>232</v>
       </c>
@@ -3940,7 +4043,7 @@
         <v>1.2650462962962962E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>233</v>
       </c>
@@ -3948,7 +4051,7 @@
         <v>5.6365740740740742E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>234</v>
       </c>
@@ -3956,7 +4059,7 @@
         <v>1.3506944444444445E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>235</v>
       </c>
@@ -3964,7 +4067,7 @@
         <v>1.5740740740740743E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
         <v>236</v>
       </c>
@@ -3972,7 +4075,7 @@
         <v>1.1863425925925925E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>237</v>
       </c>
@@ -3980,7 +4083,7 @@
         <v>1.1909722222222223E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>238</v>
       </c>
@@ -3988,7 +4091,7 @@
         <v>5.6134259259259271E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>239</v>
       </c>
@@ -3996,7 +4099,7 @@
         <v>9.0162037037037034E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>240</v>
       </c>
@@ -4004,7 +4107,7 @@
         <v>1.5462962962962963E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>241</v>
       </c>
@@ -4012,7 +4115,7 @@
         <v>1.1307870370370371E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>242</v>
       </c>
@@ -4020,7 +4123,7 @@
         <v>1.4745370370370372E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>243</v>
       </c>
@@ -4028,7 +4131,7 @@
         <v>2.417824074074074E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>244</v>
       </c>
@@ -4036,7 +4139,7 @@
         <v>8.819444444444444E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>245</v>
       </c>
@@ -4044,7 +4147,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:3">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>246</v>
       </c>
@@ -4052,7 +4155,7 @@
         <v>1.087962962962963E-2</v>
       </c>
     </row>
-    <row r="242" spans="2:3">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>247</v>
       </c>
@@ -4060,7 +4163,7 @@
         <v>4.2245370370370371E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:3">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>248</v>
       </c>
@@ -4068,7 +4171,7 @@
         <v>1.2326388888888888E-2</v>
       </c>
     </row>
-    <row r="244" spans="2:3">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>249</v>
       </c>
@@ -4076,7 +4179,7 @@
         <v>7.4421296296296293E-3</v>
       </c>
     </row>
-    <row r="245" spans="2:3">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>250</v>
       </c>
@@ -4084,7 +4187,7 @@
         <v>1.1562499999999998E-2</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>251</v>
       </c>
@@ -4092,7 +4195,7 @@
         <v>4.2013888888888891E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>252</v>
       </c>
@@ -4100,7 +4203,7 @@
         <v>1.4259259259259261E-2</v>
       </c>
     </row>
-    <row r="248" spans="2:3">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>253</v>
       </c>
@@ -4108,7 +4211,7 @@
         <v>1.3402777777777777E-2</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>254</v>
       </c>
@@ -4116,7 +4219,7 @@
         <v>1.4363425925925925E-2</v>
       </c>
     </row>
-    <row r="250" spans="2:3">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>255</v>
       </c>
@@ -4124,7 +4227,7 @@
         <v>1.681712962962963E-2</v>
       </c>
     </row>
-    <row r="251" spans="2:3">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>256</v>
       </c>
@@ -4132,7 +4235,7 @@
         <v>8.2523148148148148E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:3">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>257</v>
       </c>
@@ -4140,7 +4243,7 @@
         <v>8.9814814814814809E-3</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>258</v>
       </c>
@@ -4148,7 +4251,7 @@
         <v>1.2638888888888889E-2</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>259</v>
       </c>
@@ -4156,7 +4259,7 @@
         <v>1.0937500000000001E-2</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>260</v>
       </c>
@@ -4164,7 +4267,7 @@
         <v>1.1770833333333333E-2</v>
       </c>
     </row>
-    <row r="256" spans="2:3">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>261</v>
       </c>
@@ -4172,7 +4275,7 @@
         <v>1.892361111111111E-2</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>262</v>
       </c>
@@ -4180,7 +4283,7 @@
         <v>2.488425925925926E-3</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>263</v>
       </c>
@@ -4188,7 +4291,7 @@
         <v>1.2118055555555556E-2</v>
       </c>
     </row>
-    <row r="259" spans="2:3">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>264</v>
       </c>
@@ -4196,7 +4299,7 @@
         <v>9.8032407407407408E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>265</v>
       </c>
@@ -4204,7 +4307,7 @@
         <v>1.7962962962962962E-2</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>266</v>
       </c>
@@ -4212,7 +4315,7 @@
         <v>6.053240740740741E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>267</v>
       </c>
@@ -4220,7 +4323,7 @@
         <v>1.091435185185185E-2</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
         <v>268</v>
       </c>
@@ -4228,7 +4331,7 @@
         <v>2.9050925925925928E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>269</v>
       </c>
@@ -4236,7 +4339,7 @@
         <v>1.3217592592592593E-2</v>
       </c>
     </row>
-    <row r="265" spans="2:3">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>270</v>
       </c>
@@ -4244,7 +4347,7 @@
         <v>5.0810185185185186E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>271</v>
       </c>
@@ -4252,7 +4355,7 @@
         <v>7.4189814814814813E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
         <v>272</v>
       </c>
@@ -4260,7 +4363,7 @@
         <v>6.8402777777777776E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:3">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>273</v>
       </c>
@@ -4268,7 +4371,7 @@
         <v>4.4675925925925933E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:3">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>274</v>
       </c>
@@ -4276,7 +4379,7 @@
         <v>1.0497685185185186E-2</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>275</v>
       </c>
@@ -4284,7 +4387,7 @@
         <v>1.1967592592592592E-2</v>
       </c>
     </row>
-    <row r="271" spans="2:3">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>276</v>
       </c>
@@ -4292,7 +4395,7 @@
         <v>5.9490740740740745E-3</v>
       </c>
     </row>
-    <row r="272" spans="2:3">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>277</v>
       </c>
@@ -4300,7 +4403,7 @@
         <v>3.483796296296296E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:3">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>278</v>
       </c>
@@ -4308,7 +4411,7 @@
         <v>7.4305555555555548E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:3">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>279</v>
       </c>
@@ -4316,7 +4419,7 @@
         <v>1.2800925925925926E-2</v>
       </c>
     </row>
-    <row r="275" spans="2:3">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>280</v>
       </c>
@@ -4324,7 +4427,7 @@
         <v>2.2222222222222222E-3</v>
       </c>
     </row>
-    <row r="276" spans="2:3">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>281</v>
       </c>
@@ -4332,7 +4435,7 @@
         <v>3.1134259259259257E-3</v>
       </c>
     </row>
-    <row r="277" spans="2:3">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>282</v>
       </c>
@@ -4340,7 +4443,7 @@
         <v>6.145833333333333E-3</v>
       </c>
     </row>
-    <row r="278" spans="2:3">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>283</v>
       </c>
@@ -4348,7 +4451,7 @@
         <v>6.4699074074074069E-3</v>
       </c>
     </row>
-    <row r="279" spans="2:3">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>284</v>
       </c>
@@ -4356,7 +4459,7 @@
         <v>1.0393518518518519E-2</v>
       </c>
     </row>
-    <row r="280" spans="2:3">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>285</v>
       </c>
@@ -4364,7 +4467,7 @@
         <v>7.5925925925925926E-3</v>
       </c>
     </row>
-    <row r="281" spans="2:3">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>286</v>
       </c>
@@ -4372,7 +4475,7 @@
         <v>4.6296296296296302E-3</v>
       </c>
     </row>
-    <row r="282" spans="2:3">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>287</v>
       </c>
@@ -4380,7 +4483,7 @@
         <v>7.7777777777777767E-3</v>
       </c>
     </row>
-    <row r="283" spans="2:3">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>288</v>
       </c>
@@ -4388,7 +4491,7 @@
         <v>1.8981481481481482E-3</v>
       </c>
     </row>
-    <row r="284" spans="2:3">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>289</v>
       </c>
@@ -4396,7 +4499,7 @@
         <v>7.3379629629629628E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:3">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
         <v>290</v>
       </c>
@@ -4404,7 +4507,7 @@
         <v>6.2731481481481484E-3</v>
       </c>
     </row>
-    <row r="286" spans="2:3">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>291</v>
       </c>
@@ -4412,7 +4515,7 @@
         <v>6.8171296296296287E-3</v>
       </c>
     </row>
-    <row r="287" spans="2:3">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>292</v>
       </c>
@@ -4420,7 +4523,7 @@
         <v>4.8032407407407407E-3</v>
       </c>
     </row>
-    <row r="288" spans="2:3">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>293</v>
       </c>
@@ -4428,7 +4531,7 @@
         <v>5.0231481481481481E-3</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
         <v>294</v>
       </c>
@@ -4436,7 +4539,7 @@
         <v>1.2731481481481481E-2</v>
       </c>
     </row>
-    <row r="290" spans="2:3">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>295</v>
       </c>
@@ -4444,7 +4547,7 @@
         <v>3.2754629629629631E-3</v>
       </c>
     </row>
-    <row r="291" spans="2:3">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>296</v>
       </c>
@@ -4452,7 +4555,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
-    <row r="292" spans="2:3">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>297</v>
       </c>
@@ -4460,7 +4563,7 @@
         <v>1.486111111111111E-2</v>
       </c>
     </row>
-    <row r="293" spans="2:3">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
         <v>298</v>
       </c>
@@ -4468,7 +4571,7 @@
         <v>7.4189814814814813E-3</v>
       </c>
     </row>
-    <row r="294" spans="2:3">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>299</v>
       </c>
@@ -4476,7 +4579,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="295" spans="2:3">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>300</v>
       </c>
@@ -4484,7 +4587,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="296" spans="2:3">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>301</v>
       </c>
@@ -4492,7 +4595,7 @@
         <v>9.0972222222222218E-3</v>
       </c>
     </row>
-    <row r="297" spans="2:3">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>302</v>
       </c>
@@ -4500,7 +4603,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
-    <row r="298" spans="2:3">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>303</v>
       </c>
@@ -4508,7 +4611,7 @@
         <v>1.1249999999999998E-2</v>
       </c>
     </row>
-    <row r="299" spans="2:3">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>304</v>
       </c>
@@ -4516,7 +4619,7 @@
         <v>6.5162037037037037E-3</v>
       </c>
     </row>
-    <row r="300" spans="2:3">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>305</v>
       </c>
@@ -4524,7 +4627,7 @@
         <v>1.0185185185185184E-2</v>
       </c>
     </row>
-    <row r="301" spans="2:3">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>306</v>
       </c>
@@ -4532,7 +4635,7 @@
         <v>3.2291666666666666E-3</v>
       </c>
     </row>
-    <row r="302" spans="2:3">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>307</v>
       </c>
@@ -4540,7 +4643,7 @@
         <v>5.8796296296296296E-3</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>308</v>
       </c>
@@ -4548,7 +4651,7 @@
         <v>5.4513888888888884E-3</v>
       </c>
     </row>
-    <row r="304" spans="2:3">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>309</v>
       </c>
@@ -4556,7 +4659,7 @@
         <v>1.3715277777777778E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
         <v>310</v>
       </c>
@@ -4564,7 +4667,7 @@
         <v>7.083333333333333E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>311</v>
       </c>
@@ -4572,7 +4675,7 @@
         <v>1.2037037037037038E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>312</v>
       </c>
@@ -4580,7 +4683,7 @@
         <v>4.4675925925925933E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>313</v>
       </c>
@@ -4588,7 +4691,7 @@
         <v>1.2719907407407407E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>314</v>
       </c>
@@ -4596,7 +4699,7 @@
         <v>6.1805555555555563E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>315</v>
       </c>
@@ -4604,7 +4707,7 @@
         <v>1.1539351851851851E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
       <c r="B311" s="7" t="s">
         <v>317</v>
@@ -4622,7 +4725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>318</v>
       </c>
@@ -4630,7 +4733,7 @@
         <v>1.1226851851851854E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>319</v>
       </c>
@@ -4638,7 +4741,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>320</v>
       </c>
@@ -4646,7 +4749,7 @@
         <v>2.0949074074074073E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>321</v>
       </c>
@@ -4654,7 +4757,7 @@
         <v>3.9467592592592592E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>322</v>
       </c>
@@ -4662,7 +4765,7 @@
         <v>3.2638888888888891E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>323</v>
       </c>
@@ -4670,7 +4773,7 @@
         <v>8.5416666666666679E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
         <v>324</v>
       </c>
@@ -4678,7 +4781,7 @@
         <v>1.0879629629629629E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>325</v>
       </c>
@@ -4686,7 +4789,7 @@
         <v>3.5763888888888894E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>326</v>
       </c>
@@ -4694,7 +4797,7 @@
         <v>7.3148148148148148E-3</v>
       </c>
     </row>
-    <row r="321" spans="2:3">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>327</v>
       </c>
@@ -4702,7 +4805,7 @@
         <v>6.4120370370370364E-3</v>
       </c>
     </row>
-    <row r="322" spans="2:3">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>328</v>
       </c>
@@ -4710,7 +4813,7 @@
         <v>1.2013888888888888E-2</v>
       </c>
     </row>
-    <row r="323" spans="2:3">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>329</v>
       </c>
@@ -4718,7 +4821,7 @@
         <v>3.2291666666666666E-3</v>
       </c>
     </row>
-    <row r="324" spans="2:3">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>330</v>
       </c>
@@ -4726,7 +4829,7 @@
         <v>3.4027777777777784E-3</v>
       </c>
     </row>
-    <row r="325" spans="2:3">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>331</v>
       </c>
@@ -4734,7 +4837,7 @@
         <v>4.5370370370370365E-3</v>
       </c>
     </row>
-    <row r="326" spans="2:3">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>332</v>
       </c>
@@ -4742,7 +4845,7 @@
         <v>5.4398148148148149E-3</v>
       </c>
     </row>
-    <row r="327" spans="2:3">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>333</v>
       </c>
@@ -4750,7 +4853,7 @@
         <v>9.2361111111111116E-3</v>
       </c>
     </row>
-    <row r="328" spans="2:3">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>334</v>
       </c>
@@ -4758,7 +4861,7 @@
         <v>6.3194444444444444E-3</v>
       </c>
     </row>
-    <row r="329" spans="2:3">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>335</v>
       </c>
@@ -4766,7 +4869,7 @@
         <v>6.4699074074074069E-3</v>
       </c>
     </row>
-    <row r="330" spans="2:3">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>336</v>
       </c>
@@ -4774,7 +4877,7 @@
         <v>3.5532407407407405E-3</v>
       </c>
     </row>
-    <row r="331" spans="2:3">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>337</v>
       </c>
@@ -4782,7 +4885,7 @@
         <v>5.8217592592592592E-3</v>
       </c>
     </row>
-    <row r="332" spans="2:3">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>338</v>
       </c>
@@ -4790,7 +4893,7 @@
         <v>4.7800925925925919E-3</v>
       </c>
     </row>
-    <row r="333" spans="2:3">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>339</v>
       </c>
@@ -4798,7 +4901,7 @@
         <v>4.9884259259259265E-3</v>
       </c>
     </row>
-    <row r="334" spans="2:3">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>340</v>
       </c>
@@ -4806,7 +4909,7 @@
         <v>5.0231481481481481E-3</v>
       </c>
     </row>
-    <row r="335" spans="2:3">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>341</v>
       </c>
@@ -4814,7 +4917,7 @@
         <v>3.2523148148148151E-3</v>
       </c>
     </row>
-    <row r="336" spans="2:3">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
         <v>342</v>
       </c>
@@ -4822,7 +4925,7 @@
         <v>3.9120370370370368E-3</v>
       </c>
     </row>
-    <row r="337" spans="2:3">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>343</v>
       </c>
@@ -4830,7 +4933,7 @@
         <v>6.4120370370370364E-3</v>
       </c>
     </row>
-    <row r="338" spans="2:3">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>344</v>
       </c>
@@ -4838,7 +4941,7 @@
         <v>6.9097222222222225E-3</v>
       </c>
     </row>
-    <row r="339" spans="2:3">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>345</v>
       </c>
@@ -4846,7 +4949,7 @@
         <v>2.1874999999999998E-3</v>
       </c>
     </row>
-    <row r="340" spans="2:3">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>346</v>
       </c>
@@ -4854,7 +4957,7 @@
         <v>7.013888888888889E-3</v>
       </c>
     </row>
-    <row r="341" spans="2:3">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>347</v>
       </c>
@@ -4862,7 +4965,7 @@
         <v>6.5277777777777782E-3</v>
       </c>
     </row>
-    <row r="342" spans="2:3">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>348</v>
       </c>
@@ -4870,7 +4973,7 @@
         <v>6.828703703703704E-3</v>
       </c>
     </row>
-    <row r="343" spans="2:3">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
         <v>349</v>
       </c>
@@ -4878,7 +4981,7 @@
         <v>3.6689814814814814E-3</v>
       </c>
     </row>
-    <row r="344" spans="2:3">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>350</v>
       </c>
@@ -4886,7 +4989,7 @@
         <v>4.2939814814814811E-3</v>
       </c>
     </row>
-    <row r="345" spans="2:3">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>351</v>
       </c>
@@ -4894,7 +4997,7 @@
         <v>4.6180555555555558E-3</v>
       </c>
     </row>
-    <row r="346" spans="2:3">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>352</v>
       </c>
@@ -4902,7 +5005,7 @@
         <v>5.162037037037037E-3</v>
       </c>
     </row>
-    <row r="347" spans="2:3">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>353</v>
       </c>
@@ -4910,7 +5013,7 @@
         <v>3.7500000000000003E-3</v>
       </c>
     </row>
-    <row r="348" spans="2:3">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>354</v>
       </c>
@@ -4918,7 +5021,7 @@
         <v>3.3912037037037036E-3</v>
       </c>
     </row>
-    <row r="349" spans="2:3">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>355</v>
       </c>
@@ -4926,7 +5029,7 @@
         <v>5.3819444444444453E-3</v>
       </c>
     </row>
-    <row r="350" spans="2:3">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
         <v>356</v>
       </c>
@@ -4934,7 +5037,7 @@
         <v>5.0115740740740737E-3</v>
       </c>
     </row>
-    <row r="351" spans="2:3">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>357</v>
       </c>
@@ -4942,7 +5045,7 @@
         <v>3.6689814814814814E-3</v>
       </c>
     </row>
-    <row r="352" spans="2:3">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>358</v>
       </c>
@@ -4950,7 +5053,7 @@
         <v>2.4421296296296296E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>359</v>
       </c>
@@ -4958,7 +5061,7 @@
         <v>8.9236111111111113E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>360</v>
       </c>
@@ -4966,7 +5069,7 @@
         <v>5.9375000000000009E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>361</v>
       </c>
@@ -4974,7 +5077,7 @@
         <v>7.2916666666666659E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>362</v>
       </c>
@@ -4982,7 +5085,7 @@
         <v>5.5324074074074069E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>363</v>
       </c>
@@ -4990,7 +5093,7 @@
         <v>5.5439814814814822E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>364</v>
       </c>
@@ -4998,7 +5101,7 @@
         <v>2.7662037037037034E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>365</v>
       </c>
@@ -5006,7 +5109,7 @@
         <v>4.9305555555555552E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
         <v>366</v>
       </c>
@@ -5014,7 +5117,7 @@
         <v>4.5138888888888893E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>367</v>
       </c>
@@ -5022,7 +5125,7 @@
         <v>3.7731481481481483E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>368</v>
       </c>
@@ -5030,7 +5133,7 @@
         <v>5.7291666666666671E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>369</v>
       </c>
@@ -5038,7 +5141,7 @@
         <v>3.8888888888888883E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>370</v>
       </c>
@@ -5046,7 +5149,7 @@
         <v>2.5925925925925925E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
         <v>528</v>
       </c>
@@ -5054,7 +5157,7 @@
         <v>3.2638888888888891E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>371</v>
       </c>
@@ -5062,7 +5165,7 @@
         <v>3.8078703703703707E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>372</v>
       </c>
@@ -5070,7 +5173,7 @@
         <v>6.238425925925925E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="2"/>
       <c r="B368" s="2" t="s">
         <v>374</v>
@@ -5088,7 +5191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>376</v>
       </c>
@@ -5096,7 +5199,7 @@
         <v>5.8912037037037032E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>377</v>
       </c>
@@ -5104,7 +5207,7 @@
         <v>7.0254629629629634E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
         <v>526</v>
       </c>
@@ -5112,7 +5215,7 @@
         <v>8.1944444444444452E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>378</v>
       </c>
@@ -5120,7 +5223,7 @@
         <v>7.2685185185185188E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>523</v>
       </c>
@@ -5128,7 +5231,7 @@
         <v>5.6944444444444438E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>379</v>
       </c>
@@ -5136,7 +5239,7 @@
         <v>1.2511574074074073E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>524</v>
       </c>
@@ -5144,7 +5247,7 @@
         <v>6.1574074074074074E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
         <v>525</v>
       </c>
@@ -5152,7 +5255,7 @@
         <v>1.8275462962962962E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>380</v>
       </c>
@@ -5160,7 +5263,7 @@
         <v>7.8240740740740753E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="2"/>
       <c r="B378" s="2" t="s">
         <v>382</v>
@@ -5178,7 +5281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>383</v>
       </c>
@@ -5186,7 +5289,7 @@
         <v>1.9212962962962962E-3</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>384</v>
       </c>
@@ -5194,7 +5297,7 @@
         <v>1.9097222222222222E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>385</v>
       </c>
@@ -5202,7 +5305,7 @@
         <v>9.6874999999999999E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>386</v>
       </c>
@@ -5210,7 +5313,7 @@
         <v>1.3078703703703703E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>387</v>
       </c>
@@ -5218,7 +5321,7 @@
         <v>9.8842592592592576E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>388</v>
       </c>
@@ -5226,7 +5329,7 @@
         <v>7.2222222222222228E-3</v>
       </c>
     </row>
-    <row r="385" spans="2:3">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>527</v>
       </c>
@@ -5234,7 +5337,7 @@
         <v>1.4918981481481483E-2</v>
       </c>
     </row>
-    <row r="386" spans="2:3">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>389</v>
       </c>
@@ -5242,7 +5345,7 @@
         <v>1.3819444444444445E-2</v>
       </c>
     </row>
-    <row r="387" spans="2:3">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>390</v>
       </c>
@@ -5250,7 +5353,7 @@
         <v>3.4479166666666665E-2</v>
       </c>
     </row>
-    <row r="388" spans="2:3">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>391</v>
       </c>
@@ -5258,7 +5361,7 @@
         <v>1.3402777777777777E-2</v>
       </c>
     </row>
-    <row r="389" spans="2:3">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>392</v>
       </c>
@@ -5266,7 +5369,7 @@
         <v>2.0381944444444446E-2</v>
       </c>
     </row>
-    <row r="390" spans="2:3">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>393</v>
       </c>
@@ -5274,7 +5377,7 @@
         <v>1.9756944444444445E-2</v>
       </c>
     </row>
-    <row r="391" spans="2:3">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>394</v>
       </c>
@@ -5282,7 +5385,7 @@
         <v>1.9895833333333331E-2</v>
       </c>
     </row>
-    <row r="392" spans="2:3">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>395</v>
       </c>
@@ -5290,7 +5393,7 @@
         <v>1.8310185185185186E-2</v>
       </c>
     </row>
-    <row r="393" spans="2:3">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>396</v>
       </c>
@@ -5298,7 +5401,7 @@
         <v>6.2962962962962964E-3</v>
       </c>
     </row>
-    <row r="394" spans="2:3">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>397</v>
       </c>
@@ -5306,7 +5409,7 @@
         <v>5.0925925925925921E-3</v>
       </c>
     </row>
-    <row r="395" spans="2:3">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>398</v>
       </c>
@@ -5314,7 +5417,7 @@
         <v>1.4386574074074072E-2</v>
       </c>
     </row>
-    <row r="396" spans="2:3">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>399</v>
       </c>
@@ -5322,7 +5425,7 @@
         <v>3.2523148148148151E-3</v>
       </c>
     </row>
-    <row r="397" spans="2:3">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>400</v>
       </c>
@@ -5330,7 +5433,7 @@
         <v>8.7037037037037031E-3</v>
       </c>
     </row>
-    <row r="398" spans="2:3">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>401</v>
       </c>
@@ -5338,7 +5441,7 @@
         <v>8.4722222222222213E-3</v>
       </c>
     </row>
-    <row r="399" spans="2:3">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>402</v>
       </c>
@@ -5346,7 +5449,7 @@
         <v>7.2453703703703708E-3</v>
       </c>
     </row>
-    <row r="400" spans="2:3">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>403</v>
       </c>
@@ -5354,7 +5457,7 @@
         <v>5.4745370370370373E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>404</v>
       </c>
@@ -5362,7 +5465,7 @@
         <v>1.5023148148148148E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="2"/>
       <c r="B402" s="2" t="s">
         <v>521</v>
@@ -5380,7 +5483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>406</v>
       </c>
@@ -5388,7 +5491,7 @@
         <v>3.9236111111111112E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>416</v>
       </c>
@@ -5396,7 +5499,7 @@
         <v>6.5509259259259262E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>417</v>
       </c>
@@ -5404,7 +5507,7 @@
         <v>1.8379629629629628E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>418</v>
       </c>
@@ -5412,7 +5515,7 @@
         <v>5.0578703703703706E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>419</v>
       </c>
@@ -5420,7 +5523,7 @@
         <v>5.4513888888888884E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
         <v>420</v>
       </c>
@@ -5428,7 +5531,7 @@
         <v>4.4560185185185189E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>421</v>
       </c>
@@ -5436,7 +5539,7 @@
         <v>2.673611111111111E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
         <v>422</v>
       </c>
@@ -5444,7 +5547,7 @@
         <v>2.8009259259259259E-3</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
         <v>423</v>
       </c>
@@ -5452,7 +5555,7 @@
         <v>7.9745370370370369E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
         <v>407</v>
       </c>
@@ -5460,7 +5563,7 @@
         <v>1.8171296296296297E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>408</v>
       </c>
@@ -5468,7 +5571,7 @@
         <v>8.9467592592592585E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>409</v>
       </c>
@@ -5476,7 +5579,7 @@
         <v>7.7662037037037031E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
         <v>410</v>
       </c>
@@ -5484,7 +5587,7 @@
         <v>3.7962962962962963E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>411</v>
       </c>
@@ -5492,7 +5595,7 @@
         <v>3.1828703703703702E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>412</v>
       </c>
@@ -5500,7 +5603,7 @@
         <v>6.7592592592592591E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>413</v>
       </c>
@@ -5508,7 +5611,7 @@
         <v>1.4189814814814815E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>414</v>
       </c>
@@ -5516,7 +5619,7 @@
         <v>8.4722222222222213E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>415</v>
       </c>
@@ -5524,7 +5627,7 @@
         <v>5.9490740740740745E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="2"/>
       <c r="B421" s="2" t="s">
         <v>518</v>
@@ -5542,7 +5645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>424</v>
       </c>
@@ -5550,7 +5653,7 @@
         <v>9.6643518518518511E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
         <v>425</v>
       </c>
@@ -5558,7 +5661,7 @@
         <v>2.5115740740740741E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
         <v>426</v>
       </c>
@@ -5566,7 +5669,7 @@
         <v>3.645833333333333E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
         <v>427</v>
       </c>
@@ -5574,7 +5677,7 @@
         <v>1.3784722222222224E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>428</v>
       </c>
@@ -5582,7 +5685,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>429</v>
       </c>
@@ -5590,7 +5693,7 @@
         <v>8.8773148148148153E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>430</v>
       </c>
@@ -5598,7 +5701,7 @@
         <v>5.0231481481481481E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
         <v>431</v>
       </c>
@@ -5606,7 +5709,7 @@
         <v>7.106481481481481E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
         <v>432</v>
       </c>
@@ -5614,7 +5717,7 @@
         <v>3.5416666666666665E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
         <v>433</v>
       </c>
@@ -5622,7 +5725,7 @@
         <v>4.2708333333333339E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B432" t="s">
         <v>434</v>
       </c>
@@ -5630,7 +5733,7 @@
         <v>4.6759259259259263E-3</v>
       </c>
     </row>
-    <row r="433" spans="2:3">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B433" t="s">
         <v>435</v>
       </c>
@@ -5638,7 +5741,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="434" spans="2:3">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B434" t="s">
         <v>436</v>
       </c>
@@ -5646,7 +5749,7 @@
         <v>1.0810185185185185E-2</v>
       </c>
     </row>
-    <row r="435" spans="2:3">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
         <v>437</v>
       </c>
@@ -5654,7 +5757,7 @@
         <v>7.7777777777777767E-3</v>
       </c>
     </row>
-    <row r="436" spans="2:3">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
         <v>438</v>
       </c>
@@ -5662,7 +5765,7 @@
         <v>4.3518518518518515E-3</v>
       </c>
     </row>
-    <row r="437" spans="2:3">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B437" t="s">
         <v>439</v>
       </c>
@@ -5670,7 +5773,7 @@
         <v>4.6759259259259263E-3</v>
       </c>
     </row>
-    <row r="438" spans="2:3">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
         <v>440</v>
       </c>
@@ -5678,7 +5781,7 @@
         <v>5.0347222222222225E-3</v>
       </c>
     </row>
-    <row r="439" spans="2:3">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B439" t="s">
         <v>441</v>
       </c>
@@ -5686,7 +5789,7 @@
         <v>1.2418981481481482E-2</v>
       </c>
     </row>
-    <row r="440" spans="2:3">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B440" t="s">
         <v>442</v>
       </c>
@@ -5694,7 +5797,7 @@
         <v>6.7708333333333336E-3</v>
       </c>
     </row>
-    <row r="441" spans="2:3">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B441" t="s">
         <v>443</v>
       </c>
@@ -5702,7 +5805,7 @@
         <v>9.9189814814814817E-3</v>
       </c>
     </row>
-    <row r="442" spans="2:3">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B442" t="s">
         <v>444</v>
       </c>
@@ -5710,7 +5813,7 @@
         <v>1.9456018518518518E-2</v>
       </c>
     </row>
-    <row r="443" spans="2:3">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
         <v>445</v>
       </c>
@@ -5718,7 +5821,7 @@
         <v>1.1087962962962964E-2</v>
       </c>
     </row>
-    <row r="444" spans="2:3">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
         <v>446</v>
       </c>
@@ -5726,7 +5829,7 @@
         <v>1.064814814814815E-2</v>
       </c>
     </row>
-    <row r="445" spans="2:3">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B445" t="s">
         <v>447</v>
       </c>
@@ -5734,7 +5837,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="446" spans="2:3">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B446" t="s">
         <v>448</v>
       </c>
@@ -5742,7 +5845,7 @@
         <v>1.230324074074074E-2</v>
       </c>
     </row>
-    <row r="447" spans="2:3">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B447" t="s">
         <v>449</v>
       </c>
@@ -5750,7 +5853,7 @@
         <v>1.3877314814814815E-2</v>
       </c>
     </row>
-    <row r="448" spans="2:3">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B448" t="s">
         <v>450</v>
       </c>
@@ -5758,7 +5861,7 @@
         <v>9.5370370370370366E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B449" t="s">
         <v>451</v>
       </c>
@@ -5766,7 +5869,7 @@
         <v>6.3888888888888884E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
         <v>452</v>
       </c>
@@ -5774,7 +5877,7 @@
         <v>5.7291666666666671E-3</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B451" t="s">
         <v>453</v>
       </c>
@@ -5782,7 +5885,7 @@
         <v>6.0069444444444441E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
         <v>454</v>
       </c>
@@ -5790,7 +5893,7 @@
         <v>6.0416666666666665E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B453" t="s">
         <v>455</v>
       </c>
@@ -5798,7 +5901,7 @@
         <v>4.4560185185185189E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B454" t="s">
         <v>456</v>
       </c>
@@ -5806,7 +5909,7 @@
         <v>4.5370370370370365E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
         <v>457</v>
       </c>
@@ -5814,7 +5917,7 @@
         <v>4.9768518518518521E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
         <v>458</v>
       </c>
@@ -5822,7 +5925,7 @@
         <v>6.9907407407407409E-3</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B457" t="s">
         <v>459</v>
       </c>
@@ -5830,7 +5933,7 @@
         <v>1.7094907407407409E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B458" t="s">
         <v>460</v>
       </c>
@@ -5838,7 +5941,7 @@
         <v>5.7060185185185191E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B459" t="s">
         <v>461</v>
       </c>
@@ -5846,7 +5949,7 @@
         <v>1.2743055555555556E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B460" t="s">
         <v>462</v>
       </c>
@@ -5854,7 +5957,7 @@
         <v>1.2673611111111109E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="2"/>
       <c r="B461" s="2" t="s">
         <v>519</v>
@@ -5872,21 +5975,37 @@
         <v>74</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
-      <c r="B462" t="s">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A462" s="13"/>
+      <c r="B462" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C462" s="1">
+      <c r="C462" s="14">
         <v>3.1828703703703706E-2</v>
       </c>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="B463" t="s">
+      <c r="D462" s="15">
+        <v>43639</v>
+      </c>
+      <c r="E462" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="F462" s="13"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A463" s="13"/>
+      <c r="B463" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C463" s="1">
+      <c r="C463" s="14">
         <v>4.313657407407407E-2</v>
       </c>
+      <c r="D463" s="15">
+        <v>43639</v>
+      </c>
+      <c r="E463" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="F463" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5896,21 +6015,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>466</v>
@@ -5928,7 +6049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>467</v>
       </c>
@@ -5942,7 +6063,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>468</v>
       </c>
@@ -5956,7 +6077,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>469</v>
       </c>
@@ -5970,7 +6091,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>470</v>
       </c>
@@ -5984,15 +6105,24 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C6" s="5">
         <v>5.8935185185185181E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="6">
+        <v>43639</v>
+      </c>
+      <c r="E6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>472</v>
       </c>
@@ -6000,7 +6130,7 @@
         <v>6.4270833333333333E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>473</v>
       </c>
@@ -6008,7 +6138,7 @@
         <v>1.892361111111111E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>474</v>
       </c>
@@ -6016,7 +6146,7 @@
         <v>1.4814814814814814E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>475</v>
       </c>
@@ -6024,7 +6154,7 @@
         <v>1.0729166666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>476</v>
       </c>
@@ -6032,7 +6162,7 @@
         <v>6.5624999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>477</v>
       </c>
@@ -6040,7 +6170,7 @@
         <v>1.091435185185185E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>478</v>
       </c>
@@ -6048,7 +6178,7 @@
         <v>2.7546296296296294E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>479</v>
       </c>
@@ -6056,7 +6186,7 @@
         <v>2.224537037037037E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>480</v>
       </c>
@@ -6064,7 +6194,7 @@
         <v>3.9270833333333331E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>481</v>
       </c>
@@ -6072,7 +6202,7 @@
         <v>1.9780092592592592E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>482</v>
       </c>
@@ -6080,7 +6210,7 @@
         <v>7.905092592592592E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>483</v>
       </c>
@@ -6088,7 +6218,7 @@
         <v>9.1782407407407403E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>484</v>
       </c>
@@ -6096,7 +6226,7 @@
         <v>1.8564814814814815E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>485</v>
       </c>
@@ -6104,7 +6234,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>486</v>
       </c>
@@ -6112,7 +6242,7 @@
         <v>1.1527777777777777E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>487</v>
       </c>
@@ -6120,7 +6250,7 @@
         <v>1.4016203703703704E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>488</v>
       </c>
@@ -6128,7 +6258,7 @@
         <v>1.4710648148148148E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>489</v>
       </c>
@@ -6136,7 +6266,7 @@
         <v>8.3796296296296292E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>490</v>
       </c>
@@ -6144,7 +6274,7 @@
         <v>1.5069444444444443E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>491</v>
       </c>
@@ -6152,7 +6282,7 @@
         <v>1.7986111111111109E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>492</v>
       </c>
@@ -6160,7 +6290,7 @@
         <v>2.8587962962962963E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>493</v>
       </c>
@@ -6168,7 +6298,7 @@
         <v>2.4189814814814816E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>494</v>
       </c>
@@ -6176,7 +6306,7 @@
         <v>2.056712962962963E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>495</v>
       </c>
@@ -6184,7 +6314,7 @@
         <v>1.1180555555555556E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>496</v>
       </c>
@@ -6192,7 +6322,7 @@
         <v>7.9166666666666673E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>497</v>
       </c>
@@ -6200,7 +6330,7 @@
         <v>1.0601851851851854E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>498</v>
       </c>
@@ -6208,7 +6338,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>499</v>
       </c>
@@ -6216,7 +6346,7 @@
         <v>6.6342592592592592E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>500</v>
       </c>
@@ -6224,7 +6354,7 @@
         <v>2.1875000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>501</v>
       </c>
@@ -6232,7 +6362,7 @@
         <v>3.0833333333333334E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>502</v>
       </c>
@@ -6240,7 +6370,7 @@
         <v>2.6747685185185183E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>503</v>
       </c>
@@ -6248,7 +6378,7 @@
         <v>5.5902777777777782E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>504</v>
       </c>
@@ -6256,7 +6386,7 @@
         <v>7.1643518518518514E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>505</v>
       </c>
@@ -6264,7 +6394,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>506</v>
       </c>
@@ -6272,7 +6402,7 @@
         <v>1.0231481481481482E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
         <v>507</v>
       </c>
@@ -6280,7 +6410,7 @@
         <v>2.4027777777777776E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>508</v>
       </c>
@@ -6288,7 +6418,7 @@
         <v>1.1759259259259259E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>509</v>
       </c>
@@ -6296,7 +6426,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>510</v>
       </c>
@@ -6304,7 +6434,7 @@
         <v>1.9930555555555556E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>511</v>
       </c>
@@ -6312,7 +6442,7 @@
         <v>9.0509259259259258E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>512</v>
       </c>
@@ -6320,12 +6450,227 @@
         <v>1.5023148148148148E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C48" s="5">
         <v>1.4236111111111111E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>43639</v>
+      </c>
+      <c r="B3" s="10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="54.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>43639</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="545">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1702,6 +1702,27 @@
     <t>面试两节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux命令10节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章1.1.-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚在边学习视频的过程中，边跟着老师在电脑上做笔记，这样比较投入，多点动用感官带动自己投入学习。
+坚持早下班，少点抱怨，都要走的人了，老老实实干完走人，如果心生抱怨，工作也做不好，态度也看得出。善始善终，学会感恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1732,7 +1753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,6 +1784,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1776,7 +1803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1807,6 +1834,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2136,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2175,6 +2204,17 @@
         <v>516</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>43640</v>
+      </c>
+      <c r="B3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" t="s">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2185,13 +2225,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2795,131 +2835,164 @@
       <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="17">
         <v>2.4467592592592593E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1.4583333333333332E-2</v>
+        <v>84</v>
+      </c>
+      <c r="C75" s="17">
+        <v>2.5462962962962961E-3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="1">
-        <v>8.7499999999999991E-3</v>
+        <v>85</v>
+      </c>
+      <c r="C76" s="17">
+        <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="1">
-        <v>5.3819444444444453E-3</v>
+        <v>86</v>
+      </c>
+      <c r="C77" s="17">
+        <v>1.2569444444444446E-2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.0324074074074074E-2</v>
+        <v>87</v>
+      </c>
+      <c r="C78" s="17">
+        <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="1">
-        <v>4.1203703703703706E-3</v>
+        <v>88</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1.0532407407407407E-2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="17">
+        <v>5.8101851851851856E-3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="17">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="17">
+        <v>6.6319444444444446E-3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="17">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="17">
+        <v>8.7499999999999991E-3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="16">
+        <v>5.3819444444444453E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1.0324074074074074E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="16">
+        <v>4.1203703703703706E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C88" s="16">
         <v>4.6527777777777774E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C89" s="16">
         <v>1.2800925925925926E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2.5462962962962961E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="1">
-        <v>6.4236111111111117E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1.2569444444444446E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="1">
-        <v>6.6550925925925935E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.0532407407407407E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="1">
-        <v>5.8101851851851856E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="1">
-        <v>3.8888888888888883E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="1">
-        <v>6.6319444444444446E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>92</v>
       </c>
@@ -2927,7 +3000,7 @@
         <v>1.5011574074074075E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>93</v>
       </c>
@@ -2935,7 +3008,7 @@
         <v>8.5879629629629622E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>94</v>
       </c>
@@ -2943,7 +3016,7 @@
         <v>4.6990740740740743E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>95</v>
       </c>
@@ -2951,7 +3024,7 @@
         <v>8.3680555555555557E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>96</v>
       </c>
@@ -2959,7 +3032,7 @@
         <v>1.019675925925926E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +3040,7 @@
         <v>9.4097222222222238E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>98</v>
       </c>
@@ -6019,7 +6092,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6128,6 +6201,15 @@
       </c>
       <c r="C7" s="5">
         <v>6.4270833333333333E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43640</v>
+      </c>
+      <c r="E7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F7" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -6646,10 +6728,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6673,6 +6755,14 @@
         <v>535</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>43640</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6730,8 +6730,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -1715,12 +1715,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二章1.1.-1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今晚在边学习视频的过程中，边跟着老师在电脑上做笔记，这样比较投入，多点动用感官带动自己投入学习。
 坚持早下班，少点抱怨，都要走的人了，老老实实干完走人，如果心生抱怨，工作也做不好，态度也看得出。善始善终，学会感恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络第二章1.1.-1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2212,7 +2212,7 @@
         <v>542</v>
       </c>
       <c r="C3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6554,7 +6554,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6760,7 +6760,7 @@
         <v>43640</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/study.xlsx
+++ b/study.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="547">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1721,6 +1721,14 @@
   </si>
   <si>
     <t>计算机网络第二章1.1.-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux命令11-16节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络第二章1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1834,8 +1842,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2165,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2215,6 +2223,17 @@
         <v>544</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>43641</v>
+      </c>
+      <c r="B4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" t="s">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,7 +2245,7 @@
   <dimension ref="A2:F463"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="C84" sqref="C84:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2835,8 +2854,11 @@
       <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>2.4467592592592593E-2</v>
+      </c>
+      <c r="D74" s="17">
+        <v>43640</v>
       </c>
       <c r="E74" t="s">
         <v>540</v>
@@ -2846,8 +2868,11 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>2.5462962962962961E-3</v>
+      </c>
+      <c r="D75" s="17">
+        <v>43640</v>
       </c>
       <c r="E75" t="s">
         <v>540</v>
@@ -2857,8 +2882,11 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="D76" s="17">
+        <v>43640</v>
       </c>
       <c r="E76" t="s">
         <v>540</v>
@@ -2868,8 +2896,11 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>1.2569444444444446E-2</v>
+      </c>
+      <c r="D77" s="17">
+        <v>43640</v>
       </c>
       <c r="E77" t="s">
         <v>540</v>
@@ -2879,8 +2910,11 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="16">
         <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="D78" s="17">
+        <v>43640</v>
       </c>
       <c r="E78" t="s">
         <v>540</v>
@@ -2890,8 +2924,11 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <v>1.0532407407407407E-2</v>
+      </c>
+      <c r="D79" s="17">
+        <v>43640</v>
       </c>
       <c r="E79" t="s">
         <v>540</v>
@@ -2901,8 +2938,11 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <v>5.8101851851851856E-3</v>
+      </c>
+      <c r="D80" s="17">
+        <v>43640</v>
       </c>
       <c r="E80" t="s">
         <v>540</v>
@@ -2912,8 +2952,11 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="16">
         <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="D81" s="17">
+        <v>43640</v>
       </c>
       <c r="E81" t="s">
         <v>540</v>
@@ -2923,8 +2966,11 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <v>6.6319444444444446E-3</v>
+      </c>
+      <c r="D82" s="17">
+        <v>43640</v>
       </c>
       <c r="E82" t="s">
         <v>540</v>
@@ -2934,8 +2980,11 @@
       <c r="B83" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="D83" s="17">
+        <v>43640</v>
       </c>
       <c r="E83" t="s">
         <v>540</v>
@@ -2945,8 +2994,11 @@
       <c r="B84" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <v>8.7499999999999991E-3</v>
+      </c>
+      <c r="D84" s="17">
+        <v>43641</v>
       </c>
       <c r="E84" t="s">
         <v>540</v>
@@ -2959,6 +3011,12 @@
       <c r="C85" s="16">
         <v>5.3819444444444453E-3</v>
       </c>
+      <c r="D85" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E85" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
@@ -2967,6 +3025,12 @@
       <c r="C86" s="16">
         <v>1.0324074074074074E-2</v>
       </c>
+      <c r="D86" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E86" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
@@ -2975,6 +3039,12 @@
       <c r="C87" s="16">
         <v>4.1203703703703706E-3</v>
       </c>
+      <c r="D87" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E87" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
@@ -2983,6 +3053,12 @@
       <c r="C88" s="16">
         <v>4.6527777777777774E-3</v>
       </c>
+      <c r="D88" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E88" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
@@ -2990,6 +3066,12 @@
       </c>
       <c r="C89" s="16">
         <v>1.2800925925925926E-2</v>
+      </c>
+      <c r="D89" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E89" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -6554,7 +6636,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6585,8 +6667,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11">
+        <v>43641</v>
+      </c>
+      <c r="B4" s="10">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
@@ -6728,10 +6814,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6763,6 +6849,11 @@
         <v>543</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>43641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -2175,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6816,8 +6816,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6850,9 +6850,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
-        <v>43641</v>
-      </c>
+      <c r="A4" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="548">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1729,6 +1729,10 @@
   </si>
   <si>
     <t>计算机网络第二章1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库11节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2173,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2234,6 +2238,14 @@
         <v>546</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>43642</v>
+      </c>
+      <c r="B5" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:C89"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3130,7 +3142,7 @@
         <v>1.6018518518518519E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>99</v>
       </c>
@@ -3138,7 +3150,7 @@
         <v>5.3935185185185188E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>100</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>1.3726851851851851E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>101</v>
       </c>
@@ -3154,7 +3166,7 @@
         <v>3.3564814814814811E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>102</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>1.0659722222222221E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>103</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>5.6944444444444438E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>104</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>1.2743055555555556E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>105</v>
       </c>
@@ -3186,252 +3198,303 @@
         <v>1.7719907407407406E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>517</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="16">
         <v>2.1990740740740741E-2</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D104" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="16">
+        <v>6.9791666666666674E-3</v>
+      </c>
+      <c r="D105" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="16">
+        <v>3.2754629629629631E-3</v>
+      </c>
+      <c r="D106" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="16">
+        <v>9.2824074074074076E-3</v>
+      </c>
+      <c r="D107" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="16">
+        <v>8.5763888888888886E-3</v>
+      </c>
+      <c r="D108" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="16">
+        <v>1.6712962962962961E-2</v>
+      </c>
+      <c r="D109" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="16">
+        <v>7.3958333333333341E-3</v>
+      </c>
+      <c r="D110" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="16">
+        <v>5.0347222222222225E-3</v>
+      </c>
+      <c r="D111" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="16">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="D112" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C113" s="16">
         <v>6.122685185185185E-3</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
+      <c r="D113" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C114" s="16">
         <v>7.5925925925925926E-3</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
+      <c r="D114" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C115" s="16">
         <v>4.1435185185185186E-3</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
+      <c r="D115" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C116" s="16">
         <v>9.6759259259259264E-3</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
+      <c r="D116" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C117" s="16">
         <v>4.4560185185185189E-3</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
+      <c r="D117" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C118" s="16">
         <v>1.0497685185185186E-2</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="1">
-        <v>6.9791666666666674E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="1">
-        <v>3.2754629629629631E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" s="1">
-        <v>9.2824074074074076E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" s="1">
-        <v>8.5763888888888886E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115" s="1">
-        <v>1.6712962962962961E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="1">
-        <v>7.3958333333333341E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="1">
-        <v>5.0347222222222225E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="1">
-        <v>4.363425925925926E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D118" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="16">
         <v>1.2291666666666666E-2</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D119" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="16">
+        <v>1.0393518518518519E-2</v>
+      </c>
+      <c r="D120" s="17">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4.5833333333333334E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4.4675925925925933E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6.053240740740741E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5.0347222222222225E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="1">
+        <v>7.4421296296296293E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5.0347222222222225E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5.4513888888888884E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C128" s="1">
         <v>9.9421296296296289E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="1">
-        <v>6.6435185185185182E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="1">
-        <v>5.1967592592592595E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" s="1">
-        <v>9.9537037037037042E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="1">
-        <v>2.488425925925926E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="1">
-        <v>9.3634259259259261E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="1">
-        <v>8.1944444444444452E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1.0393518518518519E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="1">
-        <v>4.5833333333333334E-3</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C129" s="1">
-        <v>4.4675925925925933E-3</v>
+        <v>6.6435185185185182E-3</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1">
-        <v>6.053240740740741E-3</v>
+        <v>5.1967592592592595E-3</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C131" s="1">
-        <v>5.0347222222222225E-3</v>
+        <v>9.9537037037037042E-3</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C132" s="1">
-        <v>7.4421296296296293E-3</v>
+        <v>2.488425925925926E-3</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C133" s="1">
-        <v>5.0347222222222225E-3</v>
+        <v>9.3634259259259261E-3</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C134" s="1">
-        <v>5.4513888888888884E-3</v>
+        <v>8.1944444444444452E-3</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.15">
@@ -3444,114 +3507,114 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C136" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>6.875E-3</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C137" s="1">
-        <v>8.2870370370370372E-3</v>
+        <v>7.743055555555556E-3</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C138" s="1">
-        <v>6.8171296296296287E-3</v>
+        <v>8.7847222222222233E-3</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C139" s="1">
-        <v>1.834490740740741E-2</v>
+        <v>6.6782407407407415E-3</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C140" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>6.3078703703703708E-3</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C141" s="1">
-        <v>8.2986111111111108E-3</v>
+        <v>8.7847222222222233E-3</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C142" s="1">
-        <v>6.875E-3</v>
+        <v>8.0092592592592594E-3</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C143" s="1">
-        <v>7.743055555555556E-3</v>
+        <v>1.0127314814814815E-2</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C144" s="1">
-        <v>8.7847222222222233E-3</v>
+        <v>4.3981481481481484E-3</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C145" s="1">
-        <v>6.6782407407407415E-3</v>
+        <v>8.2870370370370372E-3</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C146" s="1">
-        <v>6.3078703703703708E-3</v>
+        <v>6.8171296296296287E-3</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C147" s="1">
-        <v>8.7847222222222233E-3</v>
+        <v>1.834490740740741E-2</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C148" s="1">
-        <v>8.0092592592592594E-3</v>
+        <v>5.9027777777777776E-3</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C149" s="1">
-        <v>1.0127314814814815E-2</v>
+        <v>8.2986111111111108E-3</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.15">
@@ -3564,114 +3627,114 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C151" s="1">
-        <v>7.69675925925926E-3</v>
+        <v>1.4976851851851852E-2</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C152" s="1">
-        <v>7.8240740740740753E-3</v>
+        <v>1.2048611111111112E-2</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C153" s="1">
-        <v>1.9085648148148147E-2</v>
+        <v>1.5219907407407409E-2</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C154" s="1">
-        <v>7.6273148148148151E-3</v>
+        <v>3.1481481481481482E-3</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C155" s="1">
-        <v>6.7708333333333336E-3</v>
+        <v>1.4479166666666668E-2</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C156" s="1">
-        <v>3.7268518518518514E-3</v>
+        <v>8.518518518518519E-3</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C157" s="1">
-        <v>1.4976851851851852E-2</v>
+        <v>7.69675925925926E-3</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C158" s="1">
-        <v>1.2048611111111112E-2</v>
+        <v>7.1296296296296307E-3</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C159" s="1">
-        <v>1.5219907407407409E-2</v>
+        <v>7.69675925925926E-3</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C160" s="1">
-        <v>3.1481481481481482E-3</v>
+        <v>7.8240740740740753E-3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C161" s="1">
-        <v>1.4479166666666668E-2</v>
+        <v>1.9085648148148147E-2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C162" s="1">
-        <v>8.518518518518519E-3</v>
+        <v>7.6273148148148151E-3</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C163" s="1">
-        <v>7.69675925925926E-3</v>
+        <v>6.7708333333333336E-3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C164" s="1">
-        <v>7.1296296296296307E-3</v>
+        <v>3.7268518518518514E-3</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -6816,7 +6879,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/study.xlsx
+++ b/study.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="549">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1735,12 +1735,16 @@
     <t>数据库11节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据库5节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,6 +1766,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1815,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1848,6 +1858,9 @@
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2177,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2239,11 +2252,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="6">
         <v>43642</v>
       </c>
       <c r="B5" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>43643</v>
+      </c>
+      <c r="B6" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -2256,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:B120"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3389,107 +3410,130 @@
       <c r="B121" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="18">
         <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="D121" s="20">
+        <v>43643</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="18">
         <v>4.4675925925925933E-3</v>
+      </c>
+      <c r="D122" s="20">
+        <v>43643</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="18">
         <v>6.053240740740741E-3</v>
+      </c>
+      <c r="D123" s="20">
+        <v>43643</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="18">
         <v>5.0347222222222225E-3</v>
+      </c>
+      <c r="D124" s="20">
+        <v>43643</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="18">
         <v>7.4421296296296293E-3</v>
+      </c>
+      <c r="D125" s="20">
+        <v>43643</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="19">
         <v>5.0347222222222225E-3</v>
       </c>
+      <c r="D126" s="20"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="19">
         <v>5.4513888888888884E-3</v>
       </c>
+      <c r="D127" s="20"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="19">
         <v>9.9421296296296289E-3</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="19">
         <v>6.6435185185185182E-3</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D129" s="20"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="19">
         <v>5.1967592592592595E-3</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="19">
         <v>9.9537037037037042E-3</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D131" s="20"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="19">
         <v>2.488425925925926E-3</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="19">
         <v>9.3634259259259261E-3</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>127</v>
       </c>
@@ -3497,7 +3541,7 @@
         <v>8.1944444444444452E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>136</v>
       </c>
@@ -3505,7 +3549,7 @@
         <v>2.0949074074074075E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>143</v>
       </c>
@@ -3513,7 +3557,7 @@
         <v>6.875E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>144</v>
       </c>
@@ -3521,7 +3565,7 @@
         <v>7.743055555555556E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>145</v>
       </c>
@@ -3529,7 +3573,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>146</v>
       </c>
@@ -3537,7 +3581,7 @@
         <v>6.6782407407407415E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>147</v>
       </c>
@@ -3545,7 +3589,7 @@
         <v>6.3078703703703708E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>148</v>
       </c>
@@ -3553,7 +3597,7 @@
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>149</v>
       </c>
@@ -3561,7 +3605,7 @@
         <v>8.0092592592592594E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>150</v>
       </c>
@@ -3569,7 +3613,7 @@
         <v>1.0127314814814815E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>137</v>
       </c>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="550">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1736,7 +1736,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库5节</t>
+    <t>数据库15节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库3节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1775,7 +1779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1812,6 +1816,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1825,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1859,8 +1869,10 @@
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2190,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2264,6 +2276,14 @@
         <v>43643</v>
       </c>
       <c r="B6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>43645</v>
+      </c>
+      <c r="B7" t="s">
         <v>548</v>
       </c>
     </row>
@@ -2277,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3413,7 +3433,7 @@
       <c r="C121" s="18">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D121" s="19">
         <v>43643</v>
       </c>
     </row>
@@ -3424,7 +3444,7 @@
       <c r="C122" s="18">
         <v>4.4675925925925933E-3</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="19">
         <v>43643</v>
       </c>
     </row>
@@ -3435,7 +3455,7 @@
       <c r="C123" s="18">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="19">
         <v>43643</v>
       </c>
     </row>
@@ -3443,143 +3463,175 @@
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C124" s="20">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D124" s="20">
-        <v>43643</v>
+      <c r="D124" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C125" s="20">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="D125" s="20">
-        <v>43643</v>
+      <c r="D125" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="20">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D126" s="20"/>
+      <c r="D126" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="20">
         <v>5.4513888888888884E-3</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C128" s="20">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="D128" s="20"/>
+      <c r="D128" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="20">
         <v>6.6435185185185182E-3</v>
       </c>
-      <c r="D129" s="20"/>
+      <c r="D129" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="19">
+      <c r="C130" s="20">
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="D130" s="20"/>
+      <c r="D130" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="20">
         <v>9.9537037037037042E-3</v>
       </c>
-      <c r="D131" s="20"/>
+      <c r="D131" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C132" s="20">
         <v>2.488425925925926E-3</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C133" s="20">
         <v>9.3634259259259261E-3</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="19">
+        <v>43645</v>
+      </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="21">
         <v>8.1944444444444452E-3</v>
+      </c>
+      <c r="D134" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="21">
         <v>2.0949074074074075E-2</v>
+      </c>
+      <c r="D135" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="21">
         <v>6.875E-3</v>
+      </c>
+      <c r="D136" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="21">
         <v>7.743055555555556E-3</v>
+      </c>
+      <c r="D137" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="21">
         <v>8.7847222222222233E-3</v>
+      </c>
+      <c r="D138" s="19">
+        <v>43645</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="22">
         <v>6.6782407407407415E-3</v>
       </c>
+      <c r="D139" s="19"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" t="s">

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="551">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1741,6 +1741,10 @@
   </si>
   <si>
     <t>数据库3节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库26节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1779,7 +1783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,12 +1820,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1835,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1870,9 +1868,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2202,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2287,6 +2282,14 @@
         <v>548</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>43646</v>
+      </c>
+      <c r="B8" t="s">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139:C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3463,7 +3466,7 @@
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="18">
         <v>5.0347222222222225E-3</v>
       </c>
       <c r="D124" s="19">
@@ -3474,7 +3477,7 @@
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="18">
         <v>7.4421296296296293E-3</v>
       </c>
       <c r="D125" s="19">
@@ -3485,7 +3488,7 @@
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="18">
         <v>5.0347222222222225E-3</v>
       </c>
       <c r="D126" s="19">
@@ -3496,7 +3499,7 @@
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="18">
         <v>5.4513888888888884E-3</v>
       </c>
       <c r="D127" s="19">
@@ -3507,7 +3510,7 @@
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="20">
+      <c r="C128" s="18">
         <v>9.9421296296296289E-3</v>
       </c>
       <c r="D128" s="19">
@@ -3518,7 +3521,7 @@
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="20">
+      <c r="C129" s="18">
         <v>6.6435185185185182E-3</v>
       </c>
       <c r="D129" s="19">
@@ -3529,7 +3532,7 @@
       <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="20">
+      <c r="C130" s="18">
         <v>5.1967592592592595E-3</v>
       </c>
       <c r="D130" s="19">
@@ -3540,7 +3543,7 @@
       <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="18">
         <v>9.9537037037037042E-3</v>
       </c>
       <c r="D131" s="19">
@@ -3551,7 +3554,7 @@
       <c r="B132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" s="20">
+      <c r="C132" s="18">
         <v>2.488425925925926E-3</v>
       </c>
       <c r="D132" s="19">
@@ -3562,7 +3565,7 @@
       <c r="B133" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="18">
         <v>9.3634259259259261E-3</v>
       </c>
       <c r="D133" s="19">
@@ -3573,7 +3576,7 @@
       <c r="B134" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="21">
+      <c r="C134" s="16">
         <v>8.1944444444444452E-3</v>
       </c>
       <c r="D134" s="19">
@@ -3584,7 +3587,7 @@
       <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="16">
         <v>2.0949074074074075E-2</v>
       </c>
       <c r="D135" s="19">
@@ -3595,7 +3598,7 @@
       <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="21">
+      <c r="C136" s="16">
         <v>6.875E-3</v>
       </c>
       <c r="D136" s="19">
@@ -3606,7 +3609,7 @@
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="21">
+      <c r="C137" s="16">
         <v>7.743055555555556E-3</v>
       </c>
       <c r="D137" s="19">
@@ -3617,7 +3620,7 @@
       <c r="B138" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="21">
+      <c r="C138" s="16">
         <v>8.7847222222222233E-3</v>
       </c>
       <c r="D138" s="19">
@@ -3628,209 +3631,286 @@
       <c r="B139" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="22">
+      <c r="C139" s="16">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="D139" s="19"/>
+      <c r="D139" s="19">
+        <v>43646</v>
+      </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="16">
         <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="D140" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="16">
         <v>8.7847222222222233E-3</v>
+      </c>
+      <c r="D141" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="16">
         <v>8.0092592592592594E-3</v>
+      </c>
+      <c r="D142" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="16">
         <v>1.0127314814814815E-2</v>
+      </c>
+      <c r="D143" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="16">
         <v>4.3981481481481484E-3</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D144" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="16">
         <v>8.2870370370370372E-3</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D145" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="16">
         <v>6.8171296296296287E-3</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D146" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="16">
         <v>1.834490740740741E-2</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D147" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="16">
         <v>5.9027777777777776E-3</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D148" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="16">
         <v>8.2986111111111108E-3</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D149" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="16">
         <v>2.0891203703703703E-2</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D150" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>158</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="16">
         <v>1.4976851851851852E-2</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D151" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="16">
         <v>1.2048611111111112E-2</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D152" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="16">
         <v>1.5219907407407409E-2</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D153" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>161</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="16">
         <v>3.1481481481481482E-3</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D154" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="16">
         <v>1.4479166666666668E-2</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D155" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="16">
         <v>8.518518518518519E-3</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D156" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>164</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="16">
         <v>7.69675925925926E-3</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D157" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="16">
         <v>7.1296296296296307E-3</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D158" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="16">
         <v>7.69675925925926E-3</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D159" s="19">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="16">
         <v>7.8240740740740753E-3</v>
+      </c>
+      <c r="D160" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>154</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="16">
         <v>1.9085648148148147E-2</v>
+      </c>
+      <c r="D161" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="16">
         <v>7.6273148148148151E-3</v>
+      </c>
+      <c r="D162" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="16">
         <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="D163" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>157</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="16">
         <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="D164" s="19">
+        <v>43646</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="552">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1745,6 +1745,10 @@
   </si>
   <si>
     <t>数据库26节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1783,7 +1787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,6 +1824,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1833,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1868,6 +1878,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2199,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2300,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139:C164"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5679,48 +5690,84 @@
       <c r="B379" t="s">
         <v>383</v>
       </c>
-      <c r="C379" s="1">
+      <c r="C379" s="20">
         <v>1.9212962962962962E-3</v>
+      </c>
+      <c r="D379" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E379" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>384</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="20">
         <v>1.9097222222222222E-3</v>
+      </c>
+      <c r="D380" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E380" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>385</v>
       </c>
-      <c r="C381" s="1">
+      <c r="C381" s="20">
         <v>9.6874999999999999E-3</v>
+      </c>
+      <c r="D381" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E381" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>386</v>
       </c>
-      <c r="C382" s="1">
+      <c r="C382" s="20">
         <v>1.3078703703703703E-2</v>
+      </c>
+      <c r="D382" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E382" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>387</v>
       </c>
-      <c r="C383" s="1">
+      <c r="C383" s="20">
         <v>9.8842592592592576E-3</v>
+      </c>
+      <c r="D383" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E383" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>388</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="20">
         <v>7.2222222222222228E-3</v>
+      </c>
+      <c r="D384" s="17">
+        <v>43647</v>
+      </c>
+      <c r="E384" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.15">

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="555">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1749,6 +1749,18 @@
   </si>
   <si>
     <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试jmetre4节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2208,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2301,6 +2313,22 @@
         <v>550</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>43648</v>
+      </c>
+      <c r="B10" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2311,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379:C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5770,31 +5798,49 @@
         <v>551</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>527</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="16">
         <v>1.4918981481481483E-2</v>
       </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D385" s="17">
+        <v>43648</v>
+      </c>
+      <c r="E385" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>389</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="16">
         <v>1.3819444444444445E-2</v>
       </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D386" s="17">
+        <v>43648</v>
+      </c>
+      <c r="E386" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>390</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="16">
         <v>3.4479166666666665E-2</v>
       </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D387" s="17">
+        <v>43648</v>
+      </c>
+      <c r="E387" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>391</v>
       </c>
@@ -5802,7 +5848,7 @@
         <v>1.3402777777777777E-2</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>392</v>
       </c>
@@ -5810,15 +5856,21 @@
         <v>2.0381944444444446E-2</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>393</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="16">
         <v>1.9756944444444445E-2</v>
       </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D390" s="17">
+        <v>43648</v>
+      </c>
+      <c r="E390" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>394</v>
       </c>
@@ -5826,7 +5878,7 @@
         <v>1.9895833333333331E-2</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>395</v>
       </c>
@@ -5834,7 +5886,7 @@
         <v>1.8310185185185186E-2</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>396</v>
       </c>
@@ -5842,7 +5894,7 @@
         <v>6.2962962962962964E-3</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>397</v>
       </c>
@@ -5850,7 +5902,7 @@
         <v>5.0925925925925921E-3</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>398</v>
       </c>
@@ -5858,7 +5910,7 @@
         <v>1.4386574074074072E-2</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>399</v>
       </c>
@@ -5866,7 +5918,7 @@
         <v>3.2523148148148151E-3</v>
       </c>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>400</v>
       </c>
@@ -5874,7 +5926,7 @@
         <v>8.7037037037037031E-3</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>401</v>
       </c>
@@ -5882,7 +5934,7 @@
         <v>8.4722222222222213E-3</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>402</v>
       </c>
@@ -5890,7 +5942,7 @@
         <v>7.2453703703703708E-3</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>403</v>
       </c>
@@ -6922,7 +6974,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6961,8 +7013,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11">
+        <v>43648</v>
+      </c>
+      <c r="B5" s="10">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="555">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -2220,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2329,6 +2329,14 @@
         <v>553</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>43649</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2339,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379:C384"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5874,32 +5882,56 @@
       <c r="B391" t="s">
         <v>394</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="20">
         <v>1.9895833333333331E-2</v>
+      </c>
+      <c r="D391" s="17">
+        <v>43649</v>
+      </c>
+      <c r="E391" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>395</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="20">
         <v>1.8310185185185186E-2</v>
+      </c>
+      <c r="D392" s="17">
+        <v>43649</v>
+      </c>
+      <c r="E392" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>396</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="20">
         <v>6.2962962962962964E-3</v>
+      </c>
+      <c r="D393" s="17">
+        <v>43649</v>
+      </c>
+      <c r="E393" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>397</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="20">
         <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="D394" s="17">
+        <v>43649</v>
+      </c>
+      <c r="E394" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.15">

--- a/study.xlsx
+++ b/study.xlsx
@@ -2348,7 +2348,7 @@
   <dimension ref="A2:F463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+      <selection activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5810,7 +5810,7 @@
       <c r="B385" t="s">
         <v>527</v>
       </c>
-      <c r="C385" s="16">
+      <c r="C385" s="20">
         <v>1.4918981481481483E-2</v>
       </c>
       <c r="D385" s="17">
@@ -5824,7 +5824,7 @@
       <c r="B386" t="s">
         <v>389</v>
       </c>
-      <c r="C386" s="16">
+      <c r="C386" s="20">
         <v>1.3819444444444445E-2</v>
       </c>
       <c r="D386" s="17">
@@ -5838,7 +5838,7 @@
       <c r="B387" t="s">
         <v>390</v>
       </c>
-      <c r="C387" s="16">
+      <c r="C387" s="20">
         <v>3.4479166666666665E-2</v>
       </c>
       <c r="D387" s="17">
@@ -5868,7 +5868,7 @@
       <c r="B390" t="s">
         <v>393</v>
       </c>
-      <c r="C390" s="16">
+      <c r="C390" s="20">
         <v>1.9756944444444445E-2</v>
       </c>
       <c r="D390" s="17">

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,40 @@
     <sheet name="考试技能" sheetId="3" r:id="rId3"/>
     <sheet name="体重记录" sheetId="4" r:id="rId4"/>
     <sheet name="感悟分享" sheetId="5" r:id="rId5"/>
+    <sheet name="食谱" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="569">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1763,12 +1790,85 @@
     <t>接口测试6节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步分钟数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆奶，鸡蛋，西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30（4.5圈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好的精神状态能提升工作效率，改善心境，更能为减肥带来持续不断的动力。跑步！
+细致观察自己的食谱和体重情况，适时调整。目标更明确，找到问题原因。
+为什么要采取运动+节食的方式减肥？
+1.单纯的节食减肥虽然在短时间内能看到减重效果，但是在过程中，身体因摄入的热量过少，会自动降低新陈代谢的速率，身体则开始变得动力不足，继而引发的是情绪上的萎靡不振。
+2.女性生理周期和体内雌激素的变化也容易造成情绪上的波动和食欲上的变化，这在一定程度上容易打乱节食减肥的节奏。所以通过适当的运动能够保持身体气血的运行和激素水平的稳定。
+为什么要通过记录食谱和体重的方式来辅助减肥？
+1.在记录中，发现问题，实时调整，目标更加清晰，提高积极性投入运动和节食中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天没有完成的原因：急匆匆地回来想找接口测试postman,想在火狐下载restclient，但发现下载不了，jmeter视频看了部分，在自己电脑发现很多电子书都是纯文本。所以都是浏览，看不进。一个晚上都在想方法怎么解决，结果没有解决。
+第二天晚上，头痛一天，没有学习
+第三天晚了手机，打扫卫生，思考该怎么才能减肥和高效交接，学习。
+8月就要离职了，十九就要来了，我用什么行动给她带来一个好的影响？我怎么让我的行动能够持续？
+1.好的精神状态来自于好的行为习惯，运动应该是最有效和最好玩的一件事，所以要坚持运动，坚持学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何强化目标感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿鸡蛋盖浇面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平菇，番薯叶，米饭，粥，辣条，西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚阅读了好好学习第一章，其中两句话是令我感到印象深刻的。
+“多数人为了逃避真正的思考愿意做任何事情。”
+“一开始就能带来直接利益和诱惑的事情，很可能要拿未来的机会做代价。”
+只有提高自己的认知层次，才能跳出【老鼠赛道】避免很努力却原地踏步的困境。
+如何提升认知深度？
+在分析问题的是否，能够跳出问题本身思考更普遍的情况，在寻求答案的时候，能够根据理由可信度判断是否接受这个结论。
+理解了什么是深度认知，
+掌握底层思维和方法，提升认知水平，如何提升？（第二章）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,6 +1898,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1820,12 +1937,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1842,6 +1953,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1855,13 +1972,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1870,10 +1984,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1883,14 +1993,55 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2219,127 +2370,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="53.25" style="30" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
         <v>43639</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>539</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
         <v>43640</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
         <v>43641</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
         <v>43642</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
         <v>43643</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32">
         <v>43645</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32">
         <v>43646</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32">
         <v>43647</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32">
         <v>43648</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32">
         <v>43649</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>553</v>
       </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32">
+        <v>43650</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32">
+        <v>43651</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
+        <v>43652</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32">
+        <v>43653</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2347,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="C390" sqref="C390"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C395" sqref="C395:C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,10 +3155,10 @@
       <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="13">
         <v>2.4467592592592593E-2</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="14">
         <v>43640</v>
       </c>
       <c r="E74" t="s">
@@ -2971,10 +3169,10 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="13">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="14">
         <v>43640</v>
       </c>
       <c r="E75" t="s">
@@ -2985,10 +3183,10 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="13">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="14">
         <v>43640</v>
       </c>
       <c r="E76" t="s">
@@ -2999,10 +3197,10 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="13">
         <v>1.2569444444444446E-2</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="14">
         <v>43640</v>
       </c>
       <c r="E77" t="s">
@@ -3013,10 +3211,10 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="13">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="14">
         <v>43640</v>
       </c>
       <c r="E78" t="s">
@@ -3027,10 +3225,10 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="13">
         <v>1.0532407407407407E-2</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="14">
         <v>43640</v>
       </c>
       <c r="E79" t="s">
@@ -3041,10 +3239,10 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="13">
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="14">
         <v>43640</v>
       </c>
       <c r="E80" t="s">
@@ -3055,10 +3253,10 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="13">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="14">
         <v>43640</v>
       </c>
       <c r="E81" t="s">
@@ -3069,10 +3267,10 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="13">
         <v>6.6319444444444446E-3</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="14">
         <v>43640</v>
       </c>
       <c r="E82" t="s">
@@ -3083,10 +3281,10 @@
       <c r="B83" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="13">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D83" s="14">
         <v>43640</v>
       </c>
       <c r="E83" t="s">
@@ -3097,10 +3295,10 @@
       <c r="B84" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="13">
         <v>8.7499999999999991E-3</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="14">
         <v>43641</v>
       </c>
       <c r="E84" t="s">
@@ -3111,10 +3309,10 @@
       <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="13">
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D85" s="14">
         <v>43641</v>
       </c>
       <c r="E85" t="s">
@@ -3125,10 +3323,10 @@
       <c r="B86" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="13">
         <v>1.0324074074074074E-2</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D86" s="14">
         <v>43641</v>
       </c>
       <c r="E86" t="s">
@@ -3139,10 +3337,10 @@
       <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="13">
         <v>4.1203703703703706E-3</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="14">
         <v>43641</v>
       </c>
       <c r="E87" t="s">
@@ -3153,10 +3351,10 @@
       <c r="B88" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="13">
         <v>4.6527777777777774E-3</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="14">
         <v>43641</v>
       </c>
       <c r="E88" t="s">
@@ -3167,10 +3365,10 @@
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="13">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="14">
         <v>43641</v>
       </c>
       <c r="E89" t="s">
@@ -3293,10 +3491,10 @@
       <c r="B104" t="s">
         <v>517</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="13">
         <v>2.1990740740740741E-2</v>
       </c>
-      <c r="D104" s="17">
+      <c r="D104" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3304,10 +3502,10 @@
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="13">
         <v>6.9791666666666674E-3</v>
       </c>
-      <c r="D105" s="17">
+      <c r="D105" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3315,10 +3513,10 @@
       <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="13">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3326,10 +3524,10 @@
       <c r="B107" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="13">
         <v>9.2824074074074076E-3</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3337,10 +3535,10 @@
       <c r="B108" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="13">
         <v>8.5763888888888886E-3</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3348,10 +3546,10 @@
       <c r="B109" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="13">
         <v>1.6712962962962961E-2</v>
       </c>
-      <c r="D109" s="17">
+      <c r="D109" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3359,10 +3557,10 @@
       <c r="B110" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="13">
         <v>7.3958333333333341E-3</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3370,10 +3568,10 @@
       <c r="B111" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="13">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D111" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3381,10 +3579,10 @@
       <c r="B112" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="13">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3392,10 +3590,10 @@
       <c r="B113" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="13">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="D113" s="17">
+      <c r="D113" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3403,10 +3601,10 @@
       <c r="B114" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="13">
         <v>7.5925925925925926E-3</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3414,10 +3612,10 @@
       <c r="B115" t="s">
         <v>108</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="13">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3425,10 +3623,10 @@
       <c r="B116" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="13">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3436,10 +3634,10 @@
       <c r="B117" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="13">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3447,10 +3645,10 @@
       <c r="B118" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="13">
         <v>1.0497685185185186E-2</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3458,10 +3656,10 @@
       <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="13">
         <v>1.2291666666666666E-2</v>
       </c>
-      <c r="D119" s="17">
+      <c r="D119" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3469,10 +3667,10 @@
       <c r="B120" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="13">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="14">
         <v>43642</v>
       </c>
     </row>
@@ -3480,10 +3678,10 @@
       <c r="B121" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="15">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="16">
         <v>43643</v>
       </c>
     </row>
@@ -3491,10 +3689,10 @@
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="18">
+      <c r="C122" s="15">
         <v>4.4675925925925933E-3</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="16">
         <v>43643</v>
       </c>
     </row>
@@ -3502,10 +3700,10 @@
       <c r="B123" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="18">
+      <c r="C123" s="15">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="16">
         <v>43643</v>
       </c>
     </row>
@@ -3513,10 +3711,10 @@
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C124" s="15">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3524,10 +3722,10 @@
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C125" s="15">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3535,10 +3733,10 @@
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C126" s="15">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3546,10 +3744,10 @@
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C127" s="15">
         <v>5.4513888888888884E-3</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3557,10 +3755,10 @@
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="15">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3568,10 +3766,10 @@
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C129" s="15">
         <v>6.6435185185185182E-3</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3579,10 +3777,10 @@
       <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C130" s="15">
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3590,10 +3788,10 @@
       <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="18">
+      <c r="C131" s="15">
         <v>9.9537037037037042E-3</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D131" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3601,10 +3799,10 @@
       <c r="B132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C132" s="15">
         <v>2.488425925925926E-3</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3612,10 +3810,10 @@
       <c r="B133" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="18">
+      <c r="C133" s="15">
         <v>9.3634259259259261E-3</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D133" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3623,10 +3821,10 @@
       <c r="B134" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="13">
         <v>8.1944444444444452E-3</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3634,10 +3832,10 @@
       <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="13">
         <v>2.0949074074074075E-2</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3645,10 +3843,10 @@
       <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="13">
         <v>6.875E-3</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3656,10 +3854,10 @@
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="16">
+      <c r="C137" s="13">
         <v>7.743055555555556E-3</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3667,10 +3865,10 @@
       <c r="B138" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="16">
+      <c r="C138" s="13">
         <v>8.7847222222222233E-3</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="16">
         <v>43645</v>
       </c>
     </row>
@@ -3678,10 +3876,10 @@
       <c r="B139" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="16">
+      <c r="C139" s="13">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3689,10 +3887,10 @@
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C140" s="13">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3700,10 +3898,10 @@
       <c r="B141" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C141" s="13">
         <v>8.7847222222222233E-3</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3711,10 +3909,10 @@
       <c r="B142" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C142" s="13">
         <v>8.0092592592592594E-3</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3722,10 +3920,10 @@
       <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C143" s="13">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3733,10 +3931,10 @@
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C144" s="13">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3744,10 +3942,10 @@
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C145" s="13">
         <v>8.2870370370370372E-3</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3755,10 +3953,10 @@
       <c r="B146" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="16">
+      <c r="C146" s="13">
         <v>6.8171296296296287E-3</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3766,10 +3964,10 @@
       <c r="B147" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C147" s="13">
         <v>1.834490740740741E-2</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3777,10 +3975,10 @@
       <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="16">
+      <c r="C148" s="13">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3788,10 +3986,10 @@
       <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="13">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3799,10 +3997,10 @@
       <c r="B150" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="16">
+      <c r="C150" s="13">
         <v>2.0891203703703703E-2</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3810,10 +4008,10 @@
       <c r="B151" t="s">
         <v>158</v>
       </c>
-      <c r="C151" s="16">
+      <c r="C151" s="13">
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3821,10 +4019,10 @@
       <c r="B152" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="16">
+      <c r="C152" s="13">
         <v>1.2048611111111112E-2</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3832,10 +4030,10 @@
       <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="16">
+      <c r="C153" s="13">
         <v>1.5219907407407409E-2</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3843,10 +4041,10 @@
       <c r="B154" t="s">
         <v>161</v>
       </c>
-      <c r="C154" s="16">
+      <c r="C154" s="13">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3854,10 +4052,10 @@
       <c r="B155" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="16">
+      <c r="C155" s="13">
         <v>1.4479166666666668E-2</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3865,10 +4063,10 @@
       <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="16">
+      <c r="C156" s="13">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3876,10 +4074,10 @@
       <c r="B157" t="s">
         <v>164</v>
       </c>
-      <c r="C157" s="16">
+      <c r="C157" s="13">
         <v>7.69675925925926E-3</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3887,10 +4085,10 @@
       <c r="B158" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="16">
+      <c r="C158" s="13">
         <v>7.1296296296296307E-3</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3898,10 +4096,10 @@
       <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="16">
+      <c r="C159" s="13">
         <v>7.69675925925926E-3</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D159" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3909,10 +4107,10 @@
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="C160" s="16">
+      <c r="C160" s="13">
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3920,10 +4118,10 @@
       <c r="B161" t="s">
         <v>154</v>
       </c>
-      <c r="C161" s="16">
+      <c r="C161" s="13">
         <v>1.9085648148148147E-2</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D161" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3931,10 +4129,10 @@
       <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="C162" s="16">
+      <c r="C162" s="13">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3942,10 +4140,10 @@
       <c r="B163" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="16">
+      <c r="C163" s="13">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -3953,10 +4151,10 @@
       <c r="B164" t="s">
         <v>157</v>
       </c>
-      <c r="C164" s="16">
+      <c r="C164" s="13">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="16">
         <v>43646</v>
       </c>
     </row>
@@ -4452,7 +4650,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5150,7 +5348,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -5726,10 +5924,10 @@
       <c r="B379" t="s">
         <v>383</v>
       </c>
-      <c r="C379" s="20">
+      <c r="C379" s="17">
         <v>1.9212962962962962E-3</v>
       </c>
-      <c r="D379" s="17">
+      <c r="D379" s="14">
         <v>43647</v>
       </c>
       <c r="E379" t="s">
@@ -5740,10 +5938,10 @@
       <c r="B380" t="s">
         <v>384</v>
       </c>
-      <c r="C380" s="20">
+      <c r="C380" s="17">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="D380" s="17">
+      <c r="D380" s="14">
         <v>43647</v>
       </c>
       <c r="E380" t="s">
@@ -5754,10 +5952,10 @@
       <c r="B381" t="s">
         <v>385</v>
       </c>
-      <c r="C381" s="20">
+      <c r="C381" s="17">
         <v>9.6874999999999999E-3</v>
       </c>
-      <c r="D381" s="17">
+      <c r="D381" s="14">
         <v>43647</v>
       </c>
       <c r="E381" t="s">
@@ -5768,10 +5966,10 @@
       <c r="B382" t="s">
         <v>386</v>
       </c>
-      <c r="C382" s="20">
+      <c r="C382" s="17">
         <v>1.3078703703703703E-2</v>
       </c>
-      <c r="D382" s="17">
+      <c r="D382" s="14">
         <v>43647</v>
       </c>
       <c r="E382" t="s">
@@ -5782,10 +5980,10 @@
       <c r="B383" t="s">
         <v>387</v>
       </c>
-      <c r="C383" s="20">
+      <c r="C383" s="17">
         <v>9.8842592592592576E-3</v>
       </c>
-      <c r="D383" s="17">
+      <c r="D383" s="14">
         <v>43647</v>
       </c>
       <c r="E383" t="s">
@@ -5796,10 +5994,10 @@
       <c r="B384" t="s">
         <v>388</v>
       </c>
-      <c r="C384" s="20">
+      <c r="C384" s="17">
         <v>7.2222222222222228E-3</v>
       </c>
-      <c r="D384" s="17">
+      <c r="D384" s="14">
         <v>43647</v>
       </c>
       <c r="E384" t="s">
@@ -5810,10 +6008,10 @@
       <c r="B385" t="s">
         <v>527</v>
       </c>
-      <c r="C385" s="20">
+      <c r="C385" s="17">
         <v>1.4918981481481483E-2</v>
       </c>
-      <c r="D385" s="17">
+      <c r="D385" s="14">
         <v>43648</v>
       </c>
       <c r="E385" t="s">
@@ -5824,10 +6022,10 @@
       <c r="B386" t="s">
         <v>389</v>
       </c>
-      <c r="C386" s="20">
+      <c r="C386" s="17">
         <v>1.3819444444444445E-2</v>
       </c>
-      <c r="D386" s="17">
+      <c r="D386" s="14">
         <v>43648</v>
       </c>
       <c r="E386" t="s">
@@ -5838,10 +6036,10 @@
       <c r="B387" t="s">
         <v>390</v>
       </c>
-      <c r="C387" s="20">
+      <c r="C387" s="17">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="D387" s="17">
+      <c r="D387" s="14">
         <v>43648</v>
       </c>
       <c r="E387" t="s">
@@ -5868,10 +6066,10 @@
       <c r="B390" t="s">
         <v>393</v>
       </c>
-      <c r="C390" s="20">
+      <c r="C390" s="17">
         <v>1.9756944444444445E-2</v>
       </c>
-      <c r="D390" s="17">
+      <c r="D390" s="14">
         <v>43648</v>
       </c>
       <c r="E390" t="s">
@@ -5882,10 +6080,10 @@
       <c r="B391" t="s">
         <v>394</v>
       </c>
-      <c r="C391" s="20">
+      <c r="C391" s="17">
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="D391" s="17">
+      <c r="D391" s="14">
         <v>43649</v>
       </c>
       <c r="E391" t="s">
@@ -5896,10 +6094,10 @@
       <c r="B392" t="s">
         <v>395</v>
       </c>
-      <c r="C392" s="20">
+      <c r="C392" s="17">
         <v>1.8310185185185186E-2</v>
       </c>
-      <c r="D392" s="17">
+      <c r="D392" s="14">
         <v>43649</v>
       </c>
       <c r="E392" t="s">
@@ -5910,10 +6108,10 @@
       <c r="B393" t="s">
         <v>396</v>
       </c>
-      <c r="C393" s="20">
+      <c r="C393" s="17">
         <v>6.2962962962962964E-3</v>
       </c>
-      <c r="D393" s="17">
+      <c r="D393" s="14">
         <v>43649</v>
       </c>
       <c r="E393" t="s">
@@ -5924,10 +6122,10 @@
       <c r="B394" t="s">
         <v>397</v>
       </c>
-      <c r="C394" s="20">
+      <c r="C394" s="17">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="D394" s="17">
+      <c r="D394" s="14">
         <v>43649</v>
       </c>
       <c r="E394" t="s">
@@ -6501,36 +6699,36 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A462" s="13"/>
-      <c r="B462" s="13" t="s">
+      <c r="A462" s="10"/>
+      <c r="B462" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C462" s="14">
+      <c r="C462" s="11">
         <v>3.1828703703703706E-2</v>
       </c>
-      <c r="D462" s="15">
+      <c r="D462" s="12">
         <v>43639</v>
       </c>
-      <c r="E462" s="13" t="s">
+      <c r="E462" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="F462" s="13"/>
+      <c r="F462" s="10"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A463" s="13"/>
-      <c r="B463" s="13" t="s">
+      <c r="A463" s="10"/>
+      <c r="B463" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C463" s="14">
+      <c r="C463" s="11">
         <v>4.313657407407407E-2</v>
       </c>
-      <c r="D463" s="15">
+      <c r="D463" s="12">
         <v>43639</v>
       </c>
-      <c r="E463" s="13" t="s">
+      <c r="E463" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="F463" s="13"/>
+      <c r="F463" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6575,13 +6773,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.5092592592592593E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>43639</v>
       </c>
       <c r="E2" t="s">
@@ -6589,13 +6787,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43639</v>
       </c>
       <c r="E3" t="s">
@@ -6603,13 +6801,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.2708333333333334E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>43639</v>
       </c>
       <c r="E4" t="s">
@@ -6617,13 +6815,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.3819444444444445E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>43639</v>
       </c>
       <c r="E5" t="s">
@@ -6631,13 +6829,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5.8935185185185181E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>43639</v>
       </c>
       <c r="E6" t="s">
@@ -6648,13 +6846,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>6.4270833333333333E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>43640</v>
       </c>
       <c r="E7" t="s">
@@ -6665,330 +6863,330 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.892361111111111E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.4814814814814814E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.0729166666666666E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>6.5624999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1.091435185185185E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>2.7546296296296294E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.224537037037037E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3.9270833333333331E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1.9780092592592592E-2</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>7.905092592592592E-3</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>9.1782407407407403E-3</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>1.8564814814814815E-2</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>8.7847222222222233E-3</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>1.1527777777777777E-2</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1.4016203703703704E-2</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>1.4710648148148148E-2</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>8.3796296296296292E-3</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1.5069444444444443E-2</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>1.7986111111111109E-2</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>2.8587962962962963E-3</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>2.4189814814814816E-3</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>2.056712962962963E-2</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1.1180555555555556E-2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>7.9166666666666673E-3</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1.0601851851851854E-2</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>1.5972222222222224E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>6.6342592592592592E-2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>2.1875000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3.0833333333333334E-2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>2.6747685185185183E-2</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>5.5902777777777782E-3</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>7.1643518518518514E-3</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>1.0231481481481482E-2</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>2.4027777777777776E-2</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>1.1759259259259259E-2</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>1.9930555555555556E-2</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>9.0509259259259258E-3</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>1.5023148148148148E-2</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>1.4236111111111111E-2</v>
       </c>
     </row>
@@ -7006,175 +7204,179 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>43639</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>43641</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>43648</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>43653</v>
+      </c>
+      <c r="B6" s="7">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7208,26 +7410,101 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>43639</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>43640</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9">
+        <v>43653</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="13.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14" style="18" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="75" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="392.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21">
+        <v>43653</v>
+      </c>
+      <c r="B2" s="20">
+        <v>135.5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/study.xlsx
+++ b/study.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
     <sheet name="测试技能" sheetId="2" r:id="rId2"/>
     <sheet name="考试技能" sheetId="3" r:id="rId3"/>
-    <sheet name="体重记录" sheetId="4" r:id="rId4"/>
-    <sheet name="感悟分享" sheetId="5" r:id="rId5"/>
-    <sheet name="食谱" sheetId="6" r:id="rId6"/>
+    <sheet name="感悟分享" sheetId="5" r:id="rId4"/>
+    <sheet name="食谱" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="575">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -1667,14 +1666,6 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该体重为当日称量的最低值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重（斤）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1861,6 +1852,235 @@
 在分析问题的是否，能够跳出问题本身思考更普遍的情况，在寻求答案的时候，能够根据理由可信度判断是否接受这个结论。
 理解了什么是深度认知，
 掌握底层思维和方法，提升认知水平，如何提升？（第二章）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶，鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡腿，葱油饼，鸡蛋饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉夹馍，鸡蛋，辣条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起学习了《好好学习》第二章，但是没有运动，也没有合理减肥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今天一天都希望能给交接工作的新人，更多实操的机会，我能把交接的内容扔出去。但是程丹上了一个上午的班还是选择放弃。客服内容太多，毫无章法。这是我的问题，我应该每天准备好他要学习的东西，让她了解我们是怎样的一个工作内容，把文档看熟，然后再开始对接客户。她的离开让我感到焦虑，公司的工资和安排测试的工作内容使我害怕找不到人接盘。我电话梁涛说出了看法，语气重的时候甚至说出了【当初就是给您带跑偏了，对接自动售货机后就变成客服了】我把焦虑转移到了梁涛身上，他已经很忙碌了。作为一名员工，这样做，的确不太好。我不够沉稳。不够积极的去想自身能做什么改善现状。
+为了能够无罪脱身，我需要少担心，同时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删繁就简</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的交接新同事认识公司系统。不害怕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今天我在下班的时候，和李饶，名艺，航哥分享了我的烦恼，他们给到我的即是：
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专人做专事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写交接文档。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+同时，他们也告知我身上存在的问题，
+1.不够聪明（记忆力差，理解能力不强，做重复的事情）；
+2.测试能力不强；
+3.不适合做测试，因为测试的方法没有跳开开发人员的思维去测试；
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以通过方法有意识去训练自己的记忆力，不要灰心，还没到吃脑白金的时候。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+反观自身
+1.我被客户的反馈牵着鼻子走，分不清轻重缓急。总是希望第一时间反馈。但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>底层的一劳永逸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法没有去探索。
+2.我也没有利用工作闲暇的时间去完成交接文档。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>十分混乱，自己在找文件的时间也花费了不少。
+3.把自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情绪灌注太多在工作上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，没有分开工作与自身的关系。
+4.正确认知这份工作，它不是一份巨大的工作，只是一份普通的工作，您对工作的态度会让接手的人感到焦虑，所以您要把您的工作从心里想象是简单的。影响他人对这份工作的认知。
+5.这只是一份工作。做好您自己的文档，您可以全身而退，其他问题就都是企业的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.早上学习了《好好学习》，让我对自己之前的认知改观。我无可厚非需要承认，自以为清醒，有心的自己，其实正是书中描述的《低效率勤奋者》或者《没有找对方法的人》，甚至是一个十分盲目无知的人。而我一直以为是自己天生懒癌。但其实，如果我知道这么一件事情，并且觉得他有趣并投身之内，也许今天会多点不同，我觉得探索这是一件积极的事情。
+2.不要把别人对自己的反馈，当做这个人对自己人品的评价。虽然原来的确让人不开心。但也不要灰心，强于找方法和联系。事情就会有所改观。你知道，我们需要做一个【找问题，解决问题的人】。
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多看书，多阅读，人才会清新。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"绿灯思维""红灯思维"
+"在原始方法的基础上进行努力，就是低水平的勤奋"
+"你相信什么，你如何看待您和这个世界的关系，深深的影响我们的学习效能”
+“真正的尊严是发现改进和成长的机会，成为更好的自己”
+“积极考虑新观点里面有价值的地方，区分"我"和"我的观点”之间的区别。我的观点是不是可以在别人的意见里进化得更好。具体如何提升学习能力“反思”“以教为学”“刻意练习”
+“反思”抓问题根本，延伸拓展再回到原点般思考；
+反思和总结的区别，总结是对和错的整体描述，反思是发生错误需找原因的过程。对假设进行校正。
+每天的反思应该记录：情绪，状态，事件，这样能更好的对比自己的成长。
+“我们认识的世界，是我们认为的真实的世界”
+如果我们认真的对待自己每天说出的“好的”，“答应别人的事情，尽可能第一时间记录下来，以免遗漏”“轻易不给承诺，给出则要做到”
+这是反思要达到的结果，那么为了更好的达到我们要的结果，我们需要养成笔记的习惯，哪些是我们答应了别人需要完成的。这样我们就会更努力的完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +2192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1984,12 +2204,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2017,12 +2231,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2041,6 +2249,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2371,164 +2585,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="36.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="53.25" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="53.25" style="26" customWidth="1"/>
     <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="A2" s="28">
         <v>43639</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>539</v>
+      <c r="B2" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="A3" s="28">
         <v>43640</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28">
+        <v>43641</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>43641</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28">
+        <v>43642</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>43643</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>43645</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>43642</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>43643</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
-        <v>43645</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>43646</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
-        <v>43646</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+      <c r="A9" s="28">
         <v>43647</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="E9" s="26"/>
+      <c r="B9" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+      <c r="A10" s="28">
         <v>43648</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="E10" s="26"/>
+      <c r="B10" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+      <c r="A11" s="28">
         <v>43649</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="B11" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+      <c r="A12" s="28">
         <v>43650</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="D12" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="26"/>
+      <c r="D12" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="A13" s="28">
         <v>43651</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <v>43652</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+      <c r="A15" s="28">
         <v>43653</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>568</v>
+      <c r="D15" s="21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>43654</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3155,164 +3377,164 @@
       <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="11">
         <v>2.4467592592592593E-2</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12">
         <v>43640</v>
       </c>
       <c r="E74" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="11">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12">
         <v>43640</v>
       </c>
       <c r="E75" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="11">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="12">
         <v>43640</v>
       </c>
       <c r="E76" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="11">
         <v>1.2569444444444446E-2</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <v>43640</v>
       </c>
       <c r="E77" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="11">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="12">
         <v>43640</v>
       </c>
       <c r="E78" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="11">
         <v>1.0532407407407407E-2</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="12">
         <v>43640</v>
       </c>
       <c r="E79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="11">
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="12">
         <v>43640</v>
       </c>
       <c r="E80" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="11">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12">
         <v>43640</v>
       </c>
       <c r="E81" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="11">
         <v>6.6319444444444446E-3</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="12">
         <v>43640</v>
       </c>
       <c r="E82" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="11">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="12">
         <v>43640</v>
       </c>
       <c r="E83" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="11">
         <v>8.7499999999999991E-3</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="12">
         <v>43641</v>
       </c>
       <c r="E84" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="11">
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="12">
         <v>43641</v>
       </c>
       <c r="E85" t="s">
@@ -3323,10 +3545,10 @@
       <c r="B86" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="11">
         <v>1.0324074074074074E-2</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="12">
         <v>43641</v>
       </c>
       <c r="E86" t="s">
@@ -3337,10 +3559,10 @@
       <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <v>4.1203703703703706E-3</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="12">
         <v>43641</v>
       </c>
       <c r="E87" t="s">
@@ -3351,10 +3573,10 @@
       <c r="B88" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="11">
         <v>4.6527777777777774E-3</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="12">
         <v>43641</v>
       </c>
       <c r="E88" t="s">
@@ -3365,10 +3587,10 @@
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="11">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="12">
         <v>43641</v>
       </c>
       <c r="E89" t="s">
@@ -3491,10 +3713,10 @@
       <c r="B104" t="s">
         <v>517</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="11">
         <v>2.1990740740740741E-2</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3502,10 +3724,10 @@
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="11">
         <v>6.9791666666666674E-3</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3513,10 +3735,10 @@
       <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="11">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3524,10 +3746,10 @@
       <c r="B107" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="11">
         <v>9.2824074074074076E-3</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3535,10 +3757,10 @@
       <c r="B108" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="11">
         <v>8.5763888888888886E-3</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3546,10 +3768,10 @@
       <c r="B109" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="11">
         <v>1.6712962962962961E-2</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3557,10 +3779,10 @@
       <c r="B110" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="11">
         <v>7.3958333333333341E-3</v>
       </c>
-      <c r="D110" s="14">
+      <c r="D110" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3568,10 +3790,10 @@
       <c r="B111" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="11">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3579,10 +3801,10 @@
       <c r="B112" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="11">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3590,10 +3812,10 @@
       <c r="B113" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="11">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3601,10 +3823,10 @@
       <c r="B114" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="11">
         <v>7.5925925925925926E-3</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3612,10 +3834,10 @@
       <c r="B115" t="s">
         <v>108</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="11">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3623,10 +3845,10 @@
       <c r="B116" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="11">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3634,10 +3856,10 @@
       <c r="B117" t="s">
         <v>110</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="11">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3645,10 +3867,10 @@
       <c r="B118" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <v>1.0497685185185186E-2</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3656,10 +3878,10 @@
       <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="11">
         <v>1.2291666666666666E-2</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3667,10 +3889,10 @@
       <c r="B120" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="11">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="12">
         <v>43642</v>
       </c>
     </row>
@@ -3678,10 +3900,10 @@
       <c r="B121" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="13">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="14">
         <v>43643</v>
       </c>
     </row>
@@ -3689,10 +3911,10 @@
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="15">
+      <c r="C122" s="13">
         <v>4.4675925925925933E-3</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="14">
         <v>43643</v>
       </c>
     </row>
@@ -3700,10 +3922,10 @@
       <c r="B123" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="13">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="14">
         <v>43643</v>
       </c>
     </row>
@@ -3711,10 +3933,10 @@
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="13">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3722,10 +3944,10 @@
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="13">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3733,10 +3955,10 @@
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C126" s="13">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="D126" s="16">
+      <c r="D126" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3744,10 +3966,10 @@
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="15">
+      <c r="C127" s="13">
         <v>5.4513888888888884E-3</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3755,10 +3977,10 @@
       <c r="B128" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="15">
+      <c r="C128" s="13">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="D128" s="16">
+      <c r="D128" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3766,10 +3988,10 @@
       <c r="B129" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="15">
+      <c r="C129" s="13">
         <v>6.6435185185185182E-3</v>
       </c>
-      <c r="D129" s="16">
+      <c r="D129" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3777,10 +3999,10 @@
       <c r="B130" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="15">
+      <c r="C130" s="13">
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="D130" s="16">
+      <c r="D130" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3788,10 +4010,10 @@
       <c r="B131" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="15">
+      <c r="C131" s="13">
         <v>9.9537037037037042E-3</v>
       </c>
-      <c r="D131" s="16">
+      <c r="D131" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3799,10 +4021,10 @@
       <c r="B132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" s="15">
+      <c r="C132" s="13">
         <v>2.488425925925926E-3</v>
       </c>
-      <c r="D132" s="16">
+      <c r="D132" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3810,10 +4032,10 @@
       <c r="B133" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="15">
+      <c r="C133" s="13">
         <v>9.3634259259259261E-3</v>
       </c>
-      <c r="D133" s="16">
+      <c r="D133" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3821,10 +4043,10 @@
       <c r="B134" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="11">
         <v>8.1944444444444452E-3</v>
       </c>
-      <c r="D134" s="16">
+      <c r="D134" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3832,10 +4054,10 @@
       <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="11">
         <v>2.0949074074074075E-2</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3843,10 +4065,10 @@
       <c r="B136" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="11">
         <v>6.875E-3</v>
       </c>
-      <c r="D136" s="16">
+      <c r="D136" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3854,10 +4076,10 @@
       <c r="B137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="11">
         <v>7.743055555555556E-3</v>
       </c>
-      <c r="D137" s="16">
+      <c r="D137" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3865,10 +4087,10 @@
       <c r="B138" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="11">
         <v>8.7847222222222233E-3</v>
       </c>
-      <c r="D138" s="16">
+      <c r="D138" s="14">
         <v>43645</v>
       </c>
     </row>
@@ -3876,10 +4098,10 @@
       <c r="B139" t="s">
         <v>146</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="11">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="D139" s="16">
+      <c r="D139" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3887,10 +4109,10 @@
       <c r="B140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="11">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="D140" s="16">
+      <c r="D140" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3898,10 +4120,10 @@
       <c r="B141" t="s">
         <v>148</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="11">
         <v>8.7847222222222233E-3</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D141" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3909,10 +4131,10 @@
       <c r="B142" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="11">
         <v>8.0092592592592594E-3</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D142" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3920,10 +4142,10 @@
       <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="11">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3931,10 +4153,10 @@
       <c r="B144" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="11">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D144" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3942,10 +4164,10 @@
       <c r="B145" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="11">
         <v>8.2870370370370372E-3</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3953,10 +4175,10 @@
       <c r="B146" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="11">
         <v>6.8171296296296287E-3</v>
       </c>
-      <c r="D146" s="16">
+      <c r="D146" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3964,10 +4186,10 @@
       <c r="B147" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="11">
         <v>1.834490740740741E-2</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3975,10 +4197,10 @@
       <c r="B148" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="11">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="D148" s="16">
+      <c r="D148" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3986,10 +4208,10 @@
       <c r="B149" t="s">
         <v>142</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="11">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -3997,10 +4219,10 @@
       <c r="B150" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="13">
+      <c r="C150" s="11">
         <v>2.0891203703703703E-2</v>
       </c>
-      <c r="D150" s="16">
+      <c r="D150" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4008,10 +4230,10 @@
       <c r="B151" t="s">
         <v>158</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4019,10 +4241,10 @@
       <c r="B152" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="11">
         <v>1.2048611111111112E-2</v>
       </c>
-      <c r="D152" s="16">
+      <c r="D152" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4030,10 +4252,10 @@
       <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="11">
         <v>1.5219907407407409E-2</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4041,10 +4263,10 @@
       <c r="B154" t="s">
         <v>161</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="11">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="D154" s="16">
+      <c r="D154" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4052,10 +4274,10 @@
       <c r="B155" t="s">
         <v>162</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="11">
         <v>1.4479166666666668E-2</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4063,10 +4285,10 @@
       <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="11">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="D156" s="16">
+      <c r="D156" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4074,10 +4296,10 @@
       <c r="B157" t="s">
         <v>164</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="11">
         <v>7.69675925925926E-3</v>
       </c>
-      <c r="D157" s="16">
+      <c r="D157" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4085,10 +4307,10 @@
       <c r="B158" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="11">
         <v>7.1296296296296307E-3</v>
       </c>
-      <c r="D158" s="16">
+      <c r="D158" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4096,10 +4318,10 @@
       <c r="B159" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="11">
         <v>7.69675925925926E-3</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4107,10 +4329,10 @@
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="C160" s="13">
+      <c r="C160" s="11">
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="D160" s="16">
+      <c r="D160" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4118,10 +4340,10 @@
       <c r="B161" t="s">
         <v>154</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="11">
         <v>1.9085648148148147E-2</v>
       </c>
-      <c r="D161" s="16">
+      <c r="D161" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4129,10 +4351,10 @@
       <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="11">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4140,10 +4362,10 @@
       <c r="B163" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="11">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -4151,10 +4373,10 @@
       <c r="B164" t="s">
         <v>157</v>
       </c>
-      <c r="C164" s="13">
+      <c r="C164" s="11">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="D164" s="16">
+      <c r="D164" s="14">
         <v>43646</v>
       </c>
     </row>
@@ -5924,126 +6146,126 @@
       <c r="B379" t="s">
         <v>383</v>
       </c>
-      <c r="C379" s="17">
+      <c r="C379" s="15">
         <v>1.9212962962962962E-3</v>
       </c>
-      <c r="D379" s="14">
+      <c r="D379" s="12">
         <v>43647</v>
       </c>
       <c r="E379" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>384</v>
       </c>
-      <c r="C380" s="17">
+      <c r="C380" s="15">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="D380" s="14">
+      <c r="D380" s="12">
         <v>43647</v>
       </c>
       <c r="E380" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>385</v>
       </c>
-      <c r="C381" s="17">
+      <c r="C381" s="15">
         <v>9.6874999999999999E-3</v>
       </c>
-      <c r="D381" s="14">
+      <c r="D381" s="12">
         <v>43647</v>
       </c>
       <c r="E381" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>386</v>
       </c>
-      <c r="C382" s="17">
+      <c r="C382" s="15">
         <v>1.3078703703703703E-2</v>
       </c>
-      <c r="D382" s="14">
+      <c r="D382" s="12">
         <v>43647</v>
       </c>
       <c r="E382" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>387</v>
       </c>
-      <c r="C383" s="17">
+      <c r="C383" s="15">
         <v>9.8842592592592576E-3</v>
       </c>
-      <c r="D383" s="14">
+      <c r="D383" s="12">
         <v>43647</v>
       </c>
       <c r="E383" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>388</v>
       </c>
-      <c r="C384" s="17">
+      <c r="C384" s="15">
         <v>7.2222222222222228E-3</v>
       </c>
-      <c r="D384" s="14">
+      <c r="D384" s="12">
         <v>43647</v>
       </c>
       <c r="E384" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>527</v>
       </c>
-      <c r="C385" s="17">
+      <c r="C385" s="15">
         <v>1.4918981481481483E-2</v>
       </c>
-      <c r="D385" s="14">
+      <c r="D385" s="12">
         <v>43648</v>
       </c>
       <c r="E385" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>389</v>
       </c>
-      <c r="C386" s="17">
+      <c r="C386" s="15">
         <v>1.3819444444444445E-2</v>
       </c>
-      <c r="D386" s="14">
+      <c r="D386" s="12">
         <v>43648</v>
       </c>
       <c r="E386" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>390</v>
       </c>
-      <c r="C387" s="17">
+      <c r="C387" s="15">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="D387" s="14">
+      <c r="D387" s="12">
         <v>43648</v>
       </c>
       <c r="E387" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.15">
@@ -6066,10 +6288,10 @@
       <c r="B390" t="s">
         <v>393</v>
       </c>
-      <c r="C390" s="17">
+      <c r="C390" s="15">
         <v>1.9756944444444445E-2</v>
       </c>
-      <c r="D390" s="14">
+      <c r="D390" s="12">
         <v>43648</v>
       </c>
       <c r="E390" t="s">
@@ -6080,10 +6302,10 @@
       <c r="B391" t="s">
         <v>394</v>
       </c>
-      <c r="C391" s="17">
+      <c r="C391" s="15">
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="D391" s="14">
+      <c r="D391" s="12">
         <v>43649</v>
       </c>
       <c r="E391" t="s">
@@ -6094,10 +6316,10 @@
       <c r="B392" t="s">
         <v>395</v>
       </c>
-      <c r="C392" s="17">
+      <c r="C392" s="15">
         <v>1.8310185185185186E-2</v>
       </c>
-      <c r="D392" s="14">
+      <c r="D392" s="12">
         <v>43649</v>
       </c>
       <c r="E392" t="s">
@@ -6108,10 +6330,10 @@
       <c r="B393" t="s">
         <v>396</v>
       </c>
-      <c r="C393" s="17">
+      <c r="C393" s="15">
         <v>6.2962962962962964E-3</v>
       </c>
-      <c r="D393" s="14">
+      <c r="D393" s="12">
         <v>43649</v>
       </c>
       <c r="E393" t="s">
@@ -6122,10 +6344,10 @@
       <c r="B394" t="s">
         <v>397</v>
       </c>
-      <c r="C394" s="17">
+      <c r="C394" s="15">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="D394" s="14">
+      <c r="D394" s="12">
         <v>43649</v>
       </c>
       <c r="E394" t="s">
@@ -6699,36 +6921,36 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A462" s="10"/>
-      <c r="B462" s="10" t="s">
+      <c r="A462" s="8"/>
+      <c r="B462" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C462" s="11">
+      <c r="C462" s="9">
         <v>3.1828703703703706E-2</v>
       </c>
-      <c r="D462" s="12">
+      <c r="D462" s="10">
         <v>43639</v>
       </c>
-      <c r="E462" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="F462" s="10"/>
+      <c r="E462" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F462" s="8"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A463" s="10"/>
-      <c r="B463" s="10" t="s">
+      <c r="A463" s="8"/>
+      <c r="B463" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C463" s="11">
+      <c r="C463" s="9">
         <v>4.313657407407407E-2</v>
       </c>
-      <c r="D463" s="12">
+      <c r="D463" s="10">
         <v>43639</v>
       </c>
-      <c r="E463" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="F463" s="10"/>
+      <c r="E463" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F463" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6839,10 +7061,10 @@
         <v>43639</v>
       </c>
       <c r="E6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F6" t="s">
         <v>536</v>
-      </c>
-      <c r="F6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -6856,10 +7078,10 @@
         <v>43640</v>
       </c>
       <c r="E7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -7201,233 +7423,55 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>43639</v>
-      </c>
-      <c r="B3" s="7">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>43641</v>
-      </c>
-      <c r="B4" s="7">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>43648</v>
-      </c>
-      <c r="B5" s="7">
-        <v>135.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>43653</v>
-      </c>
-      <c r="B6" s="7">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>531</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>43639</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>43640</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="339" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>43653</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -7436,70 +7480,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="18"/>
-    <col min="3" max="3" width="13.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="75" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="13.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24" style="16" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="75" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
+        <v>43653</v>
+      </c>
+      <c r="B2" s="18">
+        <v>135.5</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="392.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
-        <v>43653</v>
-      </c>
-      <c r="B2" s="20">
-        <v>135.5</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>43654</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>563</v>
+      <c r="E3" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/study.xlsx
+++ b/study.xlsx
@@ -2588,8 +2588,8 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2745,7 +2745,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="305.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>43654</v>
       </c>
@@ -7425,8 +7425,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="每一天提交内容" sheetId="1" r:id="rId1"/>
@@ -2587,9 +2587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7425,7 +7425,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7482,6 +7482,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/study.xlsx
+++ b/study.xlsx
@@ -7425,8 +7425,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7464,7 +7464,7 @@
       <c r="A4" s="7">
         <v>43653</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>571</v>
       </c>
       <c r="C4" s="21" t="s">

--- a/study.xlsx
+++ b/study.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="578">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -2083,12 +2083,78 @@
 这是反思要达到的结果，那么为了更好的达到我们要的结果，我们需要养成笔记的习惯，哪些是我们答应了别人需要完成的。这样我们就会更努力的完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放轻松，不要焦虑。事情都会被完满的解决。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+日拱一卒,功不唐捐。
+对待新人，删繁就简，用他们的角度去教。毕竟他们完全不了解系统项目。先理解别人，再让别人来理解我。
+每次给98的建议我该这样，那样，我就心生不满。
+毕竟觉得他们太多抱怨了，但是不抱怨又发现不了问题。没有软件基础也许学起来会比较辛苦。
+先理解他人，再思考方法调整。一件让您生气的事也许是让您能节省更多招聘时间，专注于交接能做得下去的人。所以不要对人，要对事。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今天和惠丽闲聊的过程中，觉得自己讲了太多不发生的和未去做的事情，包括自己未来的规划，对十九的鞭策，太多自己的日常。
+人与人还是需要一些距离的，这样才能健康成长。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">人和人的认知是有差距的。我们看到的世界是我们认知决定和想象的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在和刘伟描述的过程，我发现我有说出后悔感，那么这就是我不应该说的内容。
+所以，应该给自己立规矩：不在惠丽面前谈论我和刘伟之间的事物，也不和刘伟谈论我和惠丽之间的沟通。这样对于我们高压的工作生活，都能带来轻松的氛围。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试要多点问，只有多问才能挖到更多面试者的性格特点，技能情况。不要怕。细心，安静地平静工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2200,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2192,7 +2266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2255,6 +2329,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7423,20 +7500,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="54.75" customWidth="1"/>
     <col min="3" max="3" width="58.25" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>531</v>
       </c>
@@ -7444,7 +7521,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>43639</v>
       </c>
@@ -7452,7 +7529,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>43640</v>
       </c>
@@ -7460,9 +7537,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="339" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
-        <v>43653</v>
+        <v>43654</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>571</v>
@@ -7472,11 +7549,26 @@
       </c>
       <c r="D4" s="21" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>43655</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/study.xlsx
+++ b/study.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="581">
   <si>
     <t>day1  01 计算机基本介绍.mp4</t>
   </si>
@@ -2149,12 +2149,24 @@
     <t>面试要多点问，只有多问才能挖到更多面试者的性格特点，技能情况。不要怕。细心，安静地平静工作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>焦虑，疲惫，口渴，轮番轰炸，不如静心做点小事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平平淡淡的生活就是不会总是毫无波澜，可以按时做自己的事情，而是纷杂繁琐，断断续续。学会自我理清工作的条理，学习的方法。每天进步一点点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复情绪。勿陷入焦虑陷阱。不值得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,6 +2215,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2266,7 +2287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2324,14 +2345,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2797,7 +2821,7 @@
         <v>43650</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>562</v>
       </c>
       <c r="E12" s="22"/>
@@ -2806,13 +2830,13 @@
       <c r="A13" s="28">
         <v>43651</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28">
         <v>43652</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
@@ -7500,10 +7524,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7513,11 +7537,11 @@
     <col min="4" max="4" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="32" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="32" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7555,7 +7579,7 @@
       <c r="A5" s="7">
         <v>43655</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>575</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -7563,6 +7587,20 @@
       </c>
       <c r="D5" s="21" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>43656</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
